--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blink\OneDrive\Documentos\Escola\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blink\OneDrive\Documentos\git\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9062715E-691E-478E-8E88-5B12BE0C6DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC85408E-09E9-411D-A0BC-49E7FC4C1582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="78">
   <si>
     <t>Designer</t>
   </si>
@@ -139,12 +139,6 @@
     <t>Teste/análise</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>Todos</t>
   </si>
   <si>
@@ -278,6 +272,9 @@
   </si>
   <si>
     <t>Considerações finais</t>
+  </si>
+  <si>
+    <t>Responsáveis</t>
   </si>
 </sst>
 </file>
@@ -344,7 +341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -547,12 +544,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,9 +622,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -634,6 +641,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,7 +1093,7 @@
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>21</v>
@@ -1192,7 +1205,7 @@
   <dimension ref="C2:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,12 +1241,10 @@
       <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>33</v>
-      </c>
+      <c r="H2" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="35"/>
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1259,7 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="9">
@@ -1261,16 +1272,16 @@
         <v>8</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L3" s="6"/>
     </row>
@@ -1278,19 +1289,23 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="12">
         <v>45380</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="12">
+        <v>45381</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
       <c r="H4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>21</v>
@@ -1304,12 +1319,18 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="4"/>
+      <c r="D5" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="13">
+        <v>45385</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45385</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
       <c r="H5" s="8" t="s">
         <v>25</v>
       </c>
@@ -1317,10 +1338,10 @@
         <v>26</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="8"/>
     </row>
@@ -1328,12 +1349,18 @@
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="3"/>
+      <c r="D6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="12">
+        <v>45383</v>
+      </c>
+      <c r="F6" s="12">
+        <v>45383</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
       <c r="H6" s="7" t="s">
         <v>26</v>
       </c>
@@ -1352,12 +1379,18 @@
       <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="4"/>
+      <c r="D7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="13">
+        <v>45383</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45383</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
       <c r="H7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1367,309 +1400,459 @@
       <c r="J7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="14"/>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="3"/>
+      <c r="D8" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="12">
+        <v>45386</v>
+      </c>
+      <c r="F8" s="12">
+        <v>45386</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
       <c r="H8" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="4"/>
+      <c r="D9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="13">
+        <v>45387</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45387</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
       <c r="H9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="14"/>
+      <c r="J9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="3"/>
+      <c r="D10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="12">
+        <v>45384</v>
+      </c>
+      <c r="F10" s="12">
+        <v>45384</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
       <c r="H10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="15"/>
+      <c r="J10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="4"/>
+      <c r="D11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="13">
+        <v>45386</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45387</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
       <c r="H11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="14"/>
+      <c r="J11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="3"/>
+      <c r="D12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="12">
+        <v>45390</v>
+      </c>
+      <c r="F12" s="12">
+        <v>45391</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
       <c r="H12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="15"/>
+      <c r="J12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="4"/>
+      <c r="D13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="13">
+        <v>45392</v>
+      </c>
+      <c r="F13" s="13">
+        <v>45393</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
       <c r="H13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="14"/>
+      <c r="J13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="3"/>
+      <c r="D14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="12">
+        <v>45394</v>
+      </c>
+      <c r="F14" s="12">
+        <v>45394</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
       <c r="H14" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="4"/>
+      <c r="D15" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="13">
+        <v>45396</v>
+      </c>
+      <c r="F15" s="13">
+        <v>45396</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
       <c r="H15" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="14"/>
+      <c r="J15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="3"/>
+      <c r="D16" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="12">
+        <v>45397</v>
+      </c>
+      <c r="F16" s="12">
+        <v>45397</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
       <c r="H16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="4"/>
+      <c r="D17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="13">
+        <v>45398</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45399</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
       <c r="H17" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="14"/>
+      <c r="J17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="3"/>
+      <c r="D18" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="12">
+        <v>45400</v>
+      </c>
+      <c r="F18" s="12">
+        <v>45400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
       <c r="H18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="15"/>
+      <c r="J18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="4"/>
+      <c r="D19" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="13">
+        <v>45401</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45401</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3</v>
+      </c>
       <c r="H19" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="14"/>
+      <c r="J19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="3"/>
+      <c r="D20" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="12">
+        <v>45402</v>
+      </c>
+      <c r="F20" s="12">
+        <v>45402</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
       <c r="H20" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="4"/>
+      <c r="D21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="13">
+        <v>45403</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45403</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
       <c r="H21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="14"/>
+      <c r="J21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="3"/>
+      <c r="D22" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="12">
+        <v>45404</v>
+      </c>
+      <c r="F22" s="12">
+        <v>45404</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
       <c r="H22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="15"/>
+      <c r="J22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="P22" s="10"/>
     </row>
@@ -1677,20 +1860,30 @@
       <c r="C23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="4"/>
+      <c r="D23" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="13">
+        <v>45405</v>
+      </c>
+      <c r="F23" s="13">
+        <v>45406</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
       <c r="H23" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="14"/>
+      <c r="J23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
       <c r="L23" s="8"/>
       <c r="P23" s="10"/>
     </row>
@@ -1698,20 +1891,30 @@
       <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="3"/>
+      <c r="D24" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="12">
+        <v>45404</v>
+      </c>
+      <c r="F24" s="12">
+        <v>45404</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2</v>
+      </c>
       <c r="H24" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="15"/>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="P24" s="10"/>
     </row>
@@ -1719,20 +1922,30 @@
       <c r="C25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="4"/>
+      <c r="D25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="13">
+        <v>45407</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45407</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
       <c r="H25" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
       <c r="L25" s="8"/>
       <c r="P25" s="10"/>
     </row>
@@ -1740,20 +1953,30 @@
       <c r="C26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="3"/>
+      <c r="D26" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="12">
+        <v>45408</v>
+      </c>
+      <c r="F26" s="12">
+        <v>45408</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
       <c r="H26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="15"/>
+      <c r="J26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
       <c r="L26" s="7"/>
       <c r="P26" s="10"/>
     </row>
@@ -1761,20 +1984,30 @@
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="4"/>
+      <c r="D27" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="13">
+        <v>45409</v>
+      </c>
+      <c r="F27" s="13">
+        <v>45409</v>
+      </c>
+      <c r="G27" s="4">
+        <v>4</v>
+      </c>
       <c r="H27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="14"/>
+      <c r="J27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
       <c r="L27" s="8"/>
       <c r="P27" s="10"/>
     </row>
@@ -1782,20 +2015,30 @@
       <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="3"/>
+      <c r="D28" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="12">
+        <v>45410</v>
+      </c>
+      <c r="F28" s="12">
+        <v>45410</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3</v>
+      </c>
       <c r="H28" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="15"/>
+      <c r="J28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="P28" s="10"/>
     </row>
@@ -1803,643 +2046,966 @@
       <c r="C29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="4"/>
+      <c r="D29" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="13">
+        <v>45411</v>
+      </c>
+      <c r="F29" s="13">
+        <v>45411</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
       <c r="H29" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0</v>
+      </c>
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="3"/>
+      <c r="D30" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="12">
+        <v>45411</v>
+      </c>
+      <c r="F30" s="12">
+        <v>45411</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3</v>
+      </c>
       <c r="H30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="15"/>
+      <c r="J30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="4"/>
+      <c r="D31" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="13">
+        <v>45412</v>
+      </c>
+      <c r="F31" s="13">
+        <v>45413</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3</v>
+      </c>
       <c r="H31" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="14"/>
+      <c r="J31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
       <c r="L31" s="8"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="3"/>
+      <c r="D32" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="12">
+        <v>45414</v>
+      </c>
+      <c r="F32" s="12">
+        <v>45414</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2</v>
+      </c>
       <c r="H32" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="15"/>
+      <c r="J32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="15">
+        <v>0</v>
+      </c>
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="4"/>
+      <c r="D33" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="13">
+        <v>45415</v>
+      </c>
+      <c r="F33" s="13">
+        <v>45415</v>
+      </c>
+      <c r="G33" s="4">
+        <v>3</v>
+      </c>
       <c r="H33" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="14"/>
+      <c r="J33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="15">
+        <v>0</v>
+      </c>
       <c r="L33" s="8"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="3"/>
+      <c r="D34" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="12">
+        <v>45416</v>
+      </c>
+      <c r="F34" s="12">
+        <v>45416</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
       <c r="H34" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="15"/>
+      <c r="J34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="15">
+        <v>0</v>
+      </c>
       <c r="L34" s="7"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="4"/>
+      <c r="D35" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="13">
+        <v>45417</v>
+      </c>
+      <c r="F35" s="13">
+        <v>45417</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
       <c r="H35" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="3"/>
+      <c r="D36" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="12">
+        <v>45418</v>
+      </c>
+      <c r="F36" s="12">
+        <v>45418</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2</v>
+      </c>
       <c r="H36" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="15"/>
+      <c r="J36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0</v>
+      </c>
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C37" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="4"/>
+      <c r="D37" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="13">
+        <v>45419</v>
+      </c>
+      <c r="F37" s="13">
+        <v>45420</v>
+      </c>
+      <c r="G37" s="4">
+        <v>2</v>
+      </c>
       <c r="H37" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="14"/>
+      <c r="J37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
       <c r="L37" s="8"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="3"/>
+      <c r="D38" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="12">
+        <v>45422</v>
+      </c>
+      <c r="F38" s="12">
+        <v>45422</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3</v>
+      </c>
       <c r="H38" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="15"/>
+      <c r="J38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="15">
+        <v>0</v>
+      </c>
       <c r="L38" s="7"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="4"/>
+      <c r="D39" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="13">
+        <v>45423</v>
+      </c>
+      <c r="F39" s="13">
+        <v>45423</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2</v>
+      </c>
       <c r="H39" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
       <c r="L39" s="8"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="3"/>
+      <c r="D40" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="12">
+        <v>45425</v>
+      </c>
+      <c r="F40" s="12">
+        <v>45425</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
       <c r="H40" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="15"/>
+      <c r="J40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="15">
+        <v>0</v>
+      </c>
       <c r="L40" s="7"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="4"/>
+      <c r="D41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="13">
+        <v>45427</v>
+      </c>
+      <c r="F41" s="13">
+        <v>45429</v>
+      </c>
+      <c r="G41" s="4">
+        <v>4</v>
+      </c>
       <c r="H41" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="14"/>
+      <c r="J41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
       <c r="L41" s="8"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="3"/>
+      <c r="D42" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="12">
+        <v>45430</v>
+      </c>
+      <c r="F42" s="12">
+        <v>45431</v>
+      </c>
+      <c r="G42" s="3">
+        <v>3</v>
+      </c>
       <c r="H42" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="15"/>
+      <c r="J42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="15">
+        <v>0</v>
+      </c>
       <c r="L42" s="7"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="4"/>
+      <c r="D43" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="13">
+        <v>45432</v>
+      </c>
+      <c r="F43" s="13">
+        <v>45432</v>
+      </c>
+      <c r="G43" s="4">
+        <v>3</v>
+      </c>
       <c r="H43" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
       <c r="L43" s="8"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="3"/>
+      <c r="D44" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="12">
+        <v>45436</v>
+      </c>
+      <c r="F44" s="12">
+        <v>45437</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3</v>
+      </c>
       <c r="H44" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="15"/>
+      <c r="J44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="15">
+        <v>0</v>
+      </c>
       <c r="L44" s="7"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="4"/>
+      <c r="D45" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="13">
+        <v>45439</v>
+      </c>
+      <c r="F45" s="13">
+        <v>45441</v>
+      </c>
+      <c r="G45" s="4">
+        <v>4</v>
+      </c>
       <c r="H45" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="14"/>
+      <c r="J45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
       <c r="L45" s="8"/>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="3"/>
+      <c r="D46" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="12">
+        <v>45442</v>
+      </c>
+      <c r="F46" s="12">
+        <v>45444</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4</v>
+      </c>
       <c r="H46" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="15"/>
+      <c r="J46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="15">
+        <v>0</v>
+      </c>
       <c r="L46" s="7"/>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="4"/>
+      <c r="D47" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="13">
+        <v>45439</v>
+      </c>
+      <c r="F47" s="13">
+        <v>45439</v>
+      </c>
+      <c r="G47" s="4">
+        <v>2</v>
+      </c>
       <c r="H47" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
       <c r="L47" s="8"/>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="3"/>
+      <c r="D48" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="12">
+        <v>45439</v>
+      </c>
+      <c r="F48" s="12">
+        <v>45440</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3</v>
+      </c>
       <c r="H48" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="15"/>
+      <c r="J48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="15">
+        <v>0</v>
+      </c>
       <c r="L48" s="7"/>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="4"/>
+      <c r="D49" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="13">
+        <v>45446</v>
+      </c>
+      <c r="F49" s="13">
+        <v>45448</v>
+      </c>
+      <c r="G49" s="4">
+        <v>4</v>
+      </c>
       <c r="H49" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I49" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="14"/>
+      <c r="J49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
       <c r="L49" s="8"/>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="3"/>
+      <c r="D50" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="12">
+        <v>45451</v>
+      </c>
+      <c r="F50" s="12">
+        <v>45452</v>
+      </c>
+      <c r="G50" s="3">
+        <v>4</v>
+      </c>
       <c r="H50" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="15"/>
+      <c r="J50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="15">
+        <v>0</v>
+      </c>
       <c r="L50" s="7"/>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="4"/>
+      <c r="D51" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="13">
+        <v>45454</v>
+      </c>
+      <c r="F51" s="13">
+        <v>45455</v>
+      </c>
+      <c r="G51" s="4">
+        <v>3</v>
+      </c>
       <c r="H51" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="14"/>
+      <c r="J51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
       <c r="L51" s="8"/>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="3"/>
+      <c r="D52" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="12">
+        <v>45458</v>
+      </c>
+      <c r="F52" s="12">
+        <v>45459</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4</v>
+      </c>
       <c r="H52" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J52" s="7"/>
-      <c r="K52" s="15"/>
+      <c r="J52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="15">
+        <v>0</v>
+      </c>
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="4"/>
+      <c r="D53" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="13">
+        <v>45467</v>
+      </c>
+      <c r="F53" s="13">
+        <v>45469</v>
+      </c>
+      <c r="G53" s="4">
+        <v>5</v>
+      </c>
       <c r="H53" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I53" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="14"/>
+      <c r="J53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="3"/>
+      <c r="D54" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="12">
+        <v>45471</v>
+      </c>
+      <c r="F54" s="12">
+        <v>45472</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3</v>
+      </c>
       <c r="H54" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="15"/>
+      <c r="J54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="15">
+        <v>0</v>
+      </c>
       <c r="L54" s="7"/>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="4"/>
+      <c r="D55" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="13">
+        <v>45443</v>
+      </c>
+      <c r="F55" s="13">
+        <v>45443</v>
+      </c>
+      <c r="G55" s="4">
+        <v>3</v>
+      </c>
       <c r="H55" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J55" s="8"/>
-      <c r="K55" s="14"/>
+      <c r="J55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
       <c r="L55" s="8"/>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="3"/>
+      <c r="D56" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="12">
+        <v>45450</v>
+      </c>
+      <c r="F56" s="12">
+        <v>45450</v>
+      </c>
+      <c r="G56" s="3">
+        <v>2</v>
+      </c>
       <c r="H56" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="15"/>
+      <c r="J56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="15">
+        <v>0</v>
+      </c>
       <c r="L56" s="7"/>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="4"/>
+      <c r="D57" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="13">
+        <v>45453</v>
+      </c>
+      <c r="F57" s="13">
+        <v>45453</v>
+      </c>
+      <c r="G57" s="4">
+        <v>3</v>
+      </c>
       <c r="H57" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="14"/>
+      <c r="J57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" s="15">
+        <v>0</v>
+      </c>
       <c r="L57" s="8"/>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="3"/>
+      <c r="D58" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="12">
+        <v>45457</v>
+      </c>
+      <c r="F58" s="12">
+        <v>45457</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2</v>
+      </c>
       <c r="H58" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J58" s="7"/>
-      <c r="K58" s="15"/>
+      <c r="J58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="15">
+        <v>0</v>
+      </c>
       <c r="L58" s="7"/>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="4"/>
+      <c r="D59" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="13">
+        <v>45460</v>
+      </c>
+      <c r="F59" s="13">
+        <v>45460</v>
+      </c>
+      <c r="G59" s="4">
+        <v>4</v>
+      </c>
       <c r="H59" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="14"/>
+      <c r="J59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" s="15">
+        <v>0</v>
+      </c>
       <c r="L59" s="8"/>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="34" t="s">
+      <c r="D60" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="32">
+        <v>45575</v>
+      </c>
+      <c r="F60" s="32">
+        <v>45585</v>
+      </c>
+      <c r="G60" s="30">
+        <v>4</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J60" s="34"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="34"/>
+      <c r="J60" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" s="36">
+        <v>0</v>
+      </c>
+      <c r="L60" s="33"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A12:A15">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
@@ -2448,8 +3014,6 @@
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",J3)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J60">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="A fazer">
       <formula>NOT(ISERROR(SEARCH("A fazer",J3)))</formula>
     </cfRule>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blink\OneDrive\Documentos\git\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC85408E-09E9-411D-A0BC-49E7FC4C1582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAC62A2-B78A-497F-9BCC-D79EB6506342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -643,13 +643,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1205,7 +1205,7 @@
   <dimension ref="C2:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,10 +1241,10 @@
       <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="35"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1308,10 +1308,10 @@
         <v>32</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4" s="17">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L4" s="7"/>
     </row>
@@ -2997,7 +2997,7 @@
       <c r="J60" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="K60" s="36">
+      <c r="K60" s="34">
         <v>0</v>
       </c>
       <c r="L60" s="33"/>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blink\OneDrive\Documentos\git\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAC62A2-B78A-497F-9BCC-D79EB6506342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7271EF1-0716-4E38-B1B1-EBA17712F3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="81">
   <si>
     <t>Designer</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>Responsáveis</t>
+  </si>
+  <si>
+    <t>Responsividade em diferentes resoluções</t>
+  </si>
+  <si>
+    <t>Responsividade mobile</t>
+  </si>
+  <si>
+    <t>*Tarefas que podem ser adicionadas de acordo com o decorrer do tempo:</t>
   </si>
 </sst>
 </file>
@@ -562,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -645,6 +654,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1202,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F5228-FEA6-410A-9456-2C6350ABE72B}">
-  <dimension ref="C2:P60"/>
+  <dimension ref="C2:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,10 +1253,10 @@
       <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1296,7 +1308,7 @@
         <v>45380</v>
       </c>
       <c r="F4" s="12">
-        <v>45381</v>
+        <v>45386</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -1338,10 +1350,10 @@
         <v>26</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" s="14">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L5" s="8"/>
     </row>
@@ -1368,10 +1380,10 @@
         <v>27</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="7"/>
     </row>
@@ -1398,10 +1410,10 @@
         <v>6</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="8"/>
     </row>
@@ -1488,10 +1500,10 @@
         <v>27</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="7"/>
     </row>
@@ -3001,6 +3013,21 @@
         <v>0</v>
       </c>
       <c r="L60" s="33"/>
+    </row>
+    <row r="62" spans="3:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="C62" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C63" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C64" s="35" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blink\OneDrive\Documentos\git\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7271EF1-0716-4E38-B1B1-EBA17712F3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1312C6C-9380-49CE-85AD-B8518B2DB030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -1217,7 +1217,7 @@
   <dimension ref="C2:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,10 +1530,10 @@
         <v>27</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="8"/>
     </row>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blink\OneDrive\Documentos\git\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1312C6C-9380-49CE-85AD-B8518B2DB030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF236DEA-94F6-454A-B564-9A2318E642D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -163,9 +163,6 @@
     <t>Footer</t>
   </si>
   <si>
-    <t>Wireframe - Login e Cadastro</t>
-  </si>
-  <si>
     <t>Código</t>
   </si>
   <si>
@@ -284,6 +281,9 @@
   </si>
   <si>
     <t>*Tarefas que podem ser adicionadas de acordo com o decorrer do tempo:</t>
+  </si>
+  <si>
+    <t>Wireframe - Login</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1217,7 @@
   <dimension ref="C2:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,7 +1254,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="37"/>
       <c r="J2" s="1" t="s">
@@ -1320,10 +1320,10 @@
         <v>32</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" s="17">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L4" s="7"/>
     </row>
@@ -1332,7 +1332,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="13">
         <v>45385</v>
@@ -1350,10 +1350,10 @@
         <v>26</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="14">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L5" s="8"/>
     </row>
@@ -1452,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E9" s="13">
         <v>45387</v>
@@ -1470,10 +1470,10 @@
         <v>26</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="8"/>
     </row>
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K12" s="15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L12" s="7"/>
     </row>
@@ -1632,7 +1632,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="13">
         <v>45396</v>
@@ -1662,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="12">
         <v>45397</v>
@@ -1692,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="13">
         <v>45398</v>
@@ -1722,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="12">
         <v>45400</v>
@@ -1752,7 +1752,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="13">
         <v>45401</v>
@@ -1812,7 +1812,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="13">
         <v>45403</v>
@@ -1842,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="12">
         <v>45404</v>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="13">
         <v>45405</v>
@@ -1904,7 +1904,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="12">
         <v>45404</v>
@@ -1966,7 +1966,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="12">
         <v>45408</v>
@@ -1997,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="13">
         <v>45409</v>
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="12">
         <v>45410</v>
@@ -2089,7 +2089,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="12">
         <v>45411</v>
@@ -2119,7 +2119,7 @@
         <v>28</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="13">
         <v>45412</v>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" s="12">
         <v>45414</v>
@@ -2179,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="13">
         <v>45415</v>
@@ -2209,7 +2209,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34" s="12">
         <v>45416</v>
@@ -2269,7 +2269,7 @@
         <v>11</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="12">
         <v>45418</v>
@@ -2299,7 +2299,7 @@
         <v>28</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="13">
         <v>45419</v>
@@ -2329,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" s="12">
         <v>45422</v>
@@ -2389,7 +2389,7 @@
         <v>11</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40" s="12">
         <v>45425</v>
@@ -2419,7 +2419,7 @@
         <v>28</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" s="13">
         <v>45427</v>
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E42" s="12">
         <v>45430</v>
@@ -2509,7 +2509,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" s="12">
         <v>45436</v>
@@ -2539,7 +2539,7 @@
         <v>28</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45" s="13">
         <v>45439</v>
@@ -2569,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46" s="12">
         <v>45442</v>
@@ -2629,7 +2629,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" s="12">
         <v>45439</v>
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E49" s="13">
         <v>45446</v>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" s="12">
         <v>45451</v>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51" s="13">
         <v>45454</v>
@@ -2749,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E52" s="12">
         <v>45458</v>
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E53" s="13">
         <v>45467</v>
@@ -2809,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" s="12">
         <v>45471</v>
@@ -2839,7 +2839,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E55" s="13">
         <v>45443</v>
@@ -2869,7 +2869,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E56" s="12">
         <v>45450</v>
@@ -2899,7 +2899,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E57" s="13">
         <v>45453</v>
@@ -2929,7 +2929,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E58" s="12">
         <v>45457</v>
@@ -2959,7 +2959,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E59" s="13">
         <v>45460</v>
@@ -2989,7 +2989,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E60" s="32">
         <v>45575</v>
@@ -3016,17 +3016,17 @@
     </row>
     <row r="62" spans="3:12" ht="60" x14ac:dyDescent="0.25">
       <c r="C62" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C63" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blink\OneDrive\Documentos\git\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF236DEA-94F6-454A-B564-9A2318E642D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89FC5F4-5AE4-4725-A5CE-6D04009A8E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F5228-FEA6-410A-9456-2C6350ABE72B}">
   <dimension ref="C2:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,10 +1440,10 @@
         <v>32</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="7"/>
     </row>
@@ -1563,7 +1563,7 @@
         <v>19</v>
       </c>
       <c r="K12" s="15">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="L12" s="7"/>
     </row>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blink\OneDrive\Documentos\git\TCC\Arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89FC5F4-5AE4-4725-A5CE-6D04009A8E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5AB411-8F98-47A7-AEA8-A2F0720DEBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F5228-FEA6-410A-9456-2C6350ABE72B}">
   <dimension ref="C2:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L12" s="7"/>
     </row>
@@ -1650,10 +1650,10 @@
         <v>26</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="8"/>
     </row>
@@ -1680,10 +1680,10 @@
         <v>27</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="7"/>
     </row>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5AB411-8F98-47A7-AEA8-A2F0720DEBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD54A1AB-6E7C-4304-A29C-2E0F7C3C6A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -1217,7 +1217,7 @@
   <dimension ref="C2:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,10 +1710,10 @@
         <v>27</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="8"/>
     </row>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD54A1AB-6E7C-4304-A29C-2E0F7C3C6A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05760240-423D-4855-9957-2C98FE22131D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -1217,7 +1217,7 @@
   <dimension ref="C2:P64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,10 +1590,10 @@
         <v>6</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="8"/>
     </row>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05760240-423D-4855-9957-2C98FE22131D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F93C77-0676-4447-8822-456C3101829A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F5228-FEA6-410A-9456-2C6350ABE72B}">
   <dimension ref="C2:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,10 +1620,10 @@
         <v>32</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="7"/>
     </row>
@@ -1740,10 +1740,10 @@
         <v>6</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="7"/>
     </row>
@@ -1891,10 +1891,10 @@
         <v>27</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="8"/>
       <c r="P23" s="10"/>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F93C77-0676-4447-8822-456C3101829A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638BDAF6-37DF-4F74-9C15-1A4D66A30FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F5228-FEA6-410A-9456-2C6350ABE72B}">
   <dimension ref="C2:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,10 +1830,10 @@
         <v>26</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="8"/>
     </row>
@@ -2046,10 +2046,10 @@
         <v>27</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K28" s="15">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L28" s="7"/>
       <c r="P28" s="10"/>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638BDAF6-37DF-4F74-9C15-1A4D66A30FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D33B2F-4801-4FC1-B07C-1CD80CD125F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F5228-FEA6-410A-9456-2C6350ABE72B}">
   <dimension ref="C2:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,10 +1860,10 @@
         <v>27</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="7"/>
       <c r="P22" s="10"/>
@@ -2049,7 +2049,7 @@
         <v>19</v>
       </c>
       <c r="K28" s="15">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L28" s="7"/>
       <c r="P28" s="10"/>
@@ -2137,10 +2137,10 @@
         <v>27</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K31" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L31" s="8"/>
     </row>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D33B2F-4801-4FC1-B07C-1CD80CD125F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D593068-B5FC-4E49-8978-B95CE62821F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F5228-FEA6-410A-9456-2C6350ABE72B}">
   <dimension ref="C2:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,10 +1800,10 @@
         <v>32</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="7"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>6</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="7"/>
       <c r="P24" s="10"/>
@@ -1953,10 +1953,10 @@
         <v>32</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K25" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="8"/>
       <c r="P25" s="10"/>
@@ -1984,10 +1984,10 @@
         <v>26</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="7"/>
       <c r="P26" s="10"/>
@@ -2015,10 +2015,10 @@
         <v>27</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="8"/>
       <c r="P27" s="10"/>
@@ -2077,10 +2077,10 @@
         <v>32</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="8"/>
     </row>
@@ -2137,10 +2137,10 @@
         <v>27</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K31" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L31" s="8"/>
     </row>
@@ -2167,10 +2167,10 @@
         <v>27</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K32" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="7"/>
     </row>
@@ -2197,10 +2197,10 @@
         <v>27</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="8"/>
     </row>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D593068-B5FC-4E49-8978-B95CE62821F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6F29E1-28DD-4033-B994-6A3619191846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F5228-FEA6-410A-9456-2C6350ABE72B}">
   <dimension ref="C2:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,10 +2046,10 @@
         <v>27</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K28" s="15">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L28" s="7"/>
       <c r="P28" s="10"/>
@@ -2170,7 +2170,7 @@
         <v>19</v>
       </c>
       <c r="K32" s="15">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L32" s="7"/>
     </row>
@@ -2317,10 +2317,10 @@
         <v>27</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K37" s="15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L37" s="8"/>
     </row>
@@ -2347,10 +2347,10 @@
         <v>27</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K38" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="7"/>
     </row>
@@ -2377,10 +2377,10 @@
         <v>32</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K39" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="8"/>
     </row>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6F29E1-28DD-4033-B994-6A3619191846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B254AF8A-ECAE-4DD7-960A-74CD60DB1B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F5228-FEA6-410A-9456-2C6350ABE72B}">
   <dimension ref="C2:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,10 +1770,10 @@
         <v>6</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K19" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L19" s="8"/>
     </row>
@@ -2107,10 +2107,10 @@
         <v>26</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="7"/>
     </row>
@@ -2167,10 +2167,10 @@
         <v>27</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K32" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L32" s="7"/>
     </row>
@@ -2257,10 +2257,10 @@
         <v>32</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K35" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="8"/>
     </row>
@@ -2287,10 +2287,10 @@
         <v>26</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K36" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="7"/>
     </row>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B254AF8A-ECAE-4DD7-960A-74CD60DB1B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CDC90D-12B6-41F5-9D42-AE591580972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="82">
   <si>
     <t>Designer</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>Wireframe - Login</t>
+  </si>
+  <si>
+    <t>Adiado</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,6 +666,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1216,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F5228-FEA6-410A-9456-2C6350ABE72B}">
   <dimension ref="C2:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1310,7 @@
       <c r="K3" s="16">
         <v>1</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -1325,7 +1340,7 @@
       <c r="K4" s="17">
         <v>1</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
@@ -1355,7 +1370,7 @@
       <c r="K5" s="14">
         <v>1</v>
       </c>
-      <c r="L5" s="8"/>
+      <c r="L5" s="40"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -1385,7 +1400,7 @@
       <c r="K6" s="15">
         <v>1</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="38"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
@@ -1415,7 +1430,7 @@
       <c r="K7" s="15">
         <v>1</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
@@ -1445,7 +1460,7 @@
       <c r="K8" s="15">
         <v>1</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="38"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -1475,7 +1490,7 @@
       <c r="K9" s="15">
         <v>1</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
@@ -1505,7 +1520,7 @@
       <c r="K10" s="15">
         <v>1</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
@@ -1535,7 +1550,7 @@
       <c r="K11" s="15">
         <v>1</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
@@ -1565,7 +1580,7 @@
       <c r="K12" s="15">
         <v>1</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="38"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
@@ -1595,7 +1610,7 @@
       <c r="K13" s="15">
         <v>1</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
@@ -1625,7 +1640,7 @@
       <c r="K14" s="15">
         <v>1</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="38"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
@@ -1655,7 +1670,7 @@
       <c r="K15" s="15">
         <v>1</v>
       </c>
-      <c r="L15" s="8"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
@@ -1685,7 +1700,7 @@
       <c r="K16" s="15">
         <v>1</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="38"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
@@ -1715,7 +1730,7 @@
       <c r="K17" s="15">
         <v>1</v>
       </c>
-      <c r="L17" s="8"/>
+      <c r="L17" s="40"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
@@ -1745,7 +1760,7 @@
       <c r="K18" s="15">
         <v>1</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="38"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
@@ -1770,12 +1785,12 @@
         <v>6</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K19" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="40"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
@@ -1805,7 +1820,7 @@
       <c r="K20" s="15">
         <v>1</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="38"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
@@ -1835,7 +1850,7 @@
       <c r="K21" s="15">
         <v>1</v>
       </c>
-      <c r="L21" s="8"/>
+      <c r="L21" s="40"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
@@ -1865,7 +1880,7 @@
       <c r="K22" s="15">
         <v>1</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="38"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.25">
@@ -1896,7 +1911,7 @@
       <c r="K23" s="15">
         <v>1</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="40"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
@@ -1927,7 +1942,7 @@
       <c r="K24" s="15">
         <v>1</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="38"/>
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.25">
@@ -1958,7 +1973,7 @@
       <c r="K25" s="15">
         <v>1</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="40"/>
       <c r="P25" s="10"/>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.25">
@@ -1989,7 +2004,7 @@
       <c r="K26" s="15">
         <v>1</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="38"/>
       <c r="P26" s="10"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
@@ -2020,7 +2035,7 @@
       <c r="K27" s="15">
         <v>1</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="40"/>
       <c r="P27" s="10"/>
     </row>
     <row r="28" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -2051,7 +2066,7 @@
       <c r="K28" s="15">
         <v>1</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="38"/>
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
@@ -2082,7 +2097,7 @@
       <c r="K29" s="15">
         <v>1</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="40"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
@@ -2107,12 +2122,14 @@
         <v>26</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K30" s="15">
-        <v>1</v>
-      </c>
-      <c r="L30" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="38" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
@@ -2142,7 +2159,7 @@
       <c r="K31" s="15">
         <v>1</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="L31" s="40"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
@@ -2172,7 +2189,7 @@
       <c r="K32" s="15">
         <v>1</v>
       </c>
-      <c r="L32" s="7"/>
+      <c r="L32" s="38"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
@@ -2202,7 +2219,7 @@
       <c r="K33" s="15">
         <v>1</v>
       </c>
-      <c r="L33" s="8"/>
+      <c r="L33" s="40"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
@@ -2232,7 +2249,7 @@
       <c r="K34" s="15">
         <v>0</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="38"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
@@ -2262,7 +2279,7 @@
       <c r="K35" s="15">
         <v>1</v>
       </c>
-      <c r="L35" s="8"/>
+      <c r="L35" s="40"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
@@ -2287,12 +2304,14 @@
         <v>26</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K36" s="15">
-        <v>1</v>
-      </c>
-      <c r="L36" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="38" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="37" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C37" s="4" t="s">
@@ -2317,12 +2336,12 @@
         <v>27</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K37" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="L37" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="40"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
@@ -2352,7 +2371,7 @@
       <c r="K38" s="15">
         <v>1</v>
       </c>
-      <c r="L38" s="7"/>
+      <c r="L38" s="38"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
@@ -2382,7 +2401,7 @@
       <c r="K39" s="15">
         <v>1</v>
       </c>
-      <c r="L39" s="8"/>
+      <c r="L39" s="40"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
@@ -2412,7 +2431,9 @@
       <c r="K40" s="15">
         <v>0</v>
       </c>
-      <c r="L40" s="7"/>
+      <c r="L40" s="38" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" s="4" t="s">
@@ -2437,12 +2458,12 @@
         <v>27</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K41" s="15">
-        <v>0</v>
-      </c>
-      <c r="L41" s="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="L41" s="40"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
@@ -2467,12 +2488,12 @@
         <v>27</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K42" s="15">
-        <v>0</v>
-      </c>
-      <c r="L42" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="L42" s="38"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
@@ -2497,12 +2518,12 @@
         <v>32</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K43" s="15">
-        <v>0</v>
-      </c>
-      <c r="L43" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="L43" s="40"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
@@ -2532,7 +2553,9 @@
       <c r="K44" s="15">
         <v>0</v>
       </c>
-      <c r="L44" s="7"/>
+      <c r="L44" s="38" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
@@ -2557,12 +2580,12 @@
         <v>27</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K45" s="15">
-        <v>0</v>
-      </c>
-      <c r="L45" s="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="L45" s="40"/>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
@@ -2587,12 +2610,12 @@
         <v>27</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K46" s="15">
-        <v>0</v>
-      </c>
-      <c r="L46" s="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="L46" s="38"/>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" s="4" t="s">
@@ -2617,12 +2640,12 @@
         <v>32</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="L47" s="40"/>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
@@ -2647,12 +2670,12 @@
         <v>6</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K48" s="15">
-        <v>0</v>
-      </c>
-      <c r="L48" s="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="L48" s="38"/>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
@@ -2682,7 +2705,7 @@
       <c r="K49" s="15">
         <v>0</v>
       </c>
-      <c r="L49" s="8"/>
+      <c r="L49" s="40"/>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
@@ -2712,7 +2735,7 @@
       <c r="K50" s="15">
         <v>0</v>
       </c>
-      <c r="L50" s="7"/>
+      <c r="L50" s="38"/>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
@@ -2742,7 +2765,7 @@
       <c r="K51" s="15">
         <v>0</v>
       </c>
-      <c r="L51" s="8"/>
+      <c r="L51" s="40"/>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
@@ -2772,7 +2795,7 @@
       <c r="K52" s="15">
         <v>0</v>
       </c>
-      <c r="L52" s="7"/>
+      <c r="L52" s="38"/>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
@@ -2802,7 +2825,7 @@
       <c r="K53" s="15">
         <v>0</v>
       </c>
-      <c r="L53" s="8"/>
+      <c r="L53" s="40"/>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
@@ -2832,7 +2855,7 @@
       <c r="K54" s="15">
         <v>0</v>
       </c>
-      <c r="L54" s="7"/>
+      <c r="L54" s="38"/>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" s="4" t="s">
@@ -2862,7 +2885,7 @@
       <c r="K55" s="15">
         <v>0</v>
       </c>
-      <c r="L55" s="8"/>
+      <c r="L55" s="40"/>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
@@ -2892,7 +2915,7 @@
       <c r="K56" s="15">
         <v>0</v>
       </c>
-      <c r="L56" s="7"/>
+      <c r="L56" s="38"/>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
@@ -2922,7 +2945,7 @@
       <c r="K57" s="15">
         <v>0</v>
       </c>
-      <c r="L57" s="8"/>
+      <c r="L57" s="40"/>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
@@ -2952,7 +2975,7 @@
       <c r="K58" s="15">
         <v>0</v>
       </c>
-      <c r="L58" s="7"/>
+      <c r="L58" s="38"/>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
@@ -2982,7 +3005,7 @@
       <c r="K59" s="15">
         <v>0</v>
       </c>
-      <c r="L59" s="8"/>
+      <c r="L59" s="40"/>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" s="30" t="s">
@@ -3012,7 +3035,7 @@
       <c r="K60" s="34">
         <v>0</v>
       </c>
-      <c r="L60" s="33"/>
+      <c r="L60" s="41"/>
     </row>
     <row r="62" spans="3:12" ht="60" x14ac:dyDescent="0.25">
       <c r="C62" s="35" t="s">

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CDC90D-12B6-41F5-9D42-AE591580972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBB784A-5FCA-4015-ACAF-01D660ABEA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
   <sheets>
     <sheet name="Funções" sheetId="1" r:id="rId1"/>
     <sheet name="Cronograma" sheetId="2" r:id="rId2"/>
-    <sheet name="Semana" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Sol1Dias" localSheetId="1">OFFSET(Cronograma!XFB1048576,MATCH(Cronograma!$M$19,Cronograma!XFC1:XFC14,0),,COUNTIF(Cronograma!XFC1:XFC14,Cronograma!$M$19))</definedName>
@@ -661,12 +660,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -678,6 +671,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1231,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F5228-FEA6-410A-9456-2C6350ABE72B}">
   <dimension ref="C2:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,10 +1267,10 @@
       <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="37"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1310,7 +1309,7 @@
       <c r="K3" s="16">
         <v>1</v>
       </c>
-      <c r="L3" s="39"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -1340,7 +1339,7 @@
       <c r="K4" s="17">
         <v>1</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
@@ -1370,7 +1369,7 @@
       <c r="K5" s="14">
         <v>1</v>
       </c>
-      <c r="L5" s="40"/>
+      <c r="L5" s="38"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -1400,7 +1399,7 @@
       <c r="K6" s="15">
         <v>1</v>
       </c>
-      <c r="L6" s="38"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
@@ -1430,7 +1429,7 @@
       <c r="K7" s="15">
         <v>1</v>
       </c>
-      <c r="L7" s="40"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
@@ -1460,7 +1459,7 @@
       <c r="K8" s="15">
         <v>1</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -1490,7 +1489,7 @@
       <c r="K9" s="15">
         <v>1</v>
       </c>
-      <c r="L9" s="40"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
@@ -1520,7 +1519,7 @@
       <c r="K10" s="15">
         <v>1</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
@@ -1550,7 +1549,7 @@
       <c r="K11" s="15">
         <v>1</v>
       </c>
-      <c r="L11" s="40"/>
+      <c r="L11" s="38"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
@@ -1580,7 +1579,7 @@
       <c r="K12" s="15">
         <v>1</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
@@ -1610,7 +1609,7 @@
       <c r="K13" s="15">
         <v>1</v>
       </c>
-      <c r="L13" s="40"/>
+      <c r="L13" s="38"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
@@ -1640,7 +1639,7 @@
       <c r="K14" s="15">
         <v>1</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
@@ -1670,7 +1669,7 @@
       <c r="K15" s="15">
         <v>1</v>
       </c>
-      <c r="L15" s="40"/>
+      <c r="L15" s="38"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
@@ -1700,7 +1699,7 @@
       <c r="K16" s="15">
         <v>1</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
@@ -1730,7 +1729,7 @@
       <c r="K17" s="15">
         <v>1</v>
       </c>
-      <c r="L17" s="40"/>
+      <c r="L17" s="38"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
@@ -1760,7 +1759,7 @@
       <c r="K18" s="15">
         <v>1</v>
       </c>
-      <c r="L18" s="38"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
@@ -1790,7 +1789,7 @@
       <c r="K19" s="15">
         <v>1</v>
       </c>
-      <c r="L19" s="40"/>
+      <c r="L19" s="38"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
@@ -1820,7 +1819,7 @@
       <c r="K20" s="15">
         <v>1</v>
       </c>
-      <c r="L20" s="38"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
@@ -1850,7 +1849,7 @@
       <c r="K21" s="15">
         <v>1</v>
       </c>
-      <c r="L21" s="40"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
@@ -1880,7 +1879,7 @@
       <c r="K22" s="15">
         <v>1</v>
       </c>
-      <c r="L22" s="38"/>
+      <c r="L22" s="36"/>
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.25">
@@ -1911,7 +1910,7 @@
       <c r="K23" s="15">
         <v>1</v>
       </c>
-      <c r="L23" s="40"/>
+      <c r="L23" s="38"/>
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
@@ -1942,7 +1941,7 @@
       <c r="K24" s="15">
         <v>1</v>
       </c>
-      <c r="L24" s="38"/>
+      <c r="L24" s="36"/>
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.25">
@@ -1973,7 +1972,7 @@
       <c r="K25" s="15">
         <v>1</v>
       </c>
-      <c r="L25" s="40"/>
+      <c r="L25" s="38"/>
       <c r="P25" s="10"/>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.25">
@@ -2004,7 +2003,7 @@
       <c r="K26" s="15">
         <v>1</v>
       </c>
-      <c r="L26" s="38"/>
+      <c r="L26" s="36"/>
       <c r="P26" s="10"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
@@ -2035,7 +2034,7 @@
       <c r="K27" s="15">
         <v>1</v>
       </c>
-      <c r="L27" s="40"/>
+      <c r="L27" s="38"/>
       <c r="P27" s="10"/>
     </row>
     <row r="28" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -2066,7 +2065,7 @@
       <c r="K28" s="15">
         <v>1</v>
       </c>
-      <c r="L28" s="38"/>
+      <c r="L28" s="36"/>
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
@@ -2097,7 +2096,7 @@
       <c r="K29" s="15">
         <v>1</v>
       </c>
-      <c r="L29" s="40"/>
+      <c r="L29" s="38"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
@@ -2127,7 +2126,7 @@
       <c r="K30" s="15">
         <v>0</v>
       </c>
-      <c r="L30" s="38" t="s">
+      <c r="L30" s="36" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2159,7 +2158,7 @@
       <c r="K31" s="15">
         <v>1</v>
       </c>
-      <c r="L31" s="40"/>
+      <c r="L31" s="38"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
@@ -2189,7 +2188,7 @@
       <c r="K32" s="15">
         <v>1</v>
       </c>
-      <c r="L32" s="38"/>
+      <c r="L32" s="36"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
@@ -2219,7 +2218,7 @@
       <c r="K33" s="15">
         <v>1</v>
       </c>
-      <c r="L33" s="40"/>
+      <c r="L33" s="38"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
@@ -2249,7 +2248,7 @@
       <c r="K34" s="15">
         <v>0</v>
       </c>
-      <c r="L34" s="38"/>
+      <c r="L34" s="36"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
@@ -2279,7 +2278,7 @@
       <c r="K35" s="15">
         <v>1</v>
       </c>
-      <c r="L35" s="40"/>
+      <c r="L35" s="38"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
@@ -2309,7 +2308,7 @@
       <c r="K36" s="15">
         <v>0</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="L36" s="36" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2341,7 +2340,7 @@
       <c r="K37" s="15">
         <v>0</v>
       </c>
-      <c r="L37" s="40"/>
+      <c r="L37" s="38"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
@@ -2371,7 +2370,7 @@
       <c r="K38" s="15">
         <v>1</v>
       </c>
-      <c r="L38" s="38"/>
+      <c r="L38" s="36"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
@@ -2401,7 +2400,7 @@
       <c r="K39" s="15">
         <v>1</v>
       </c>
-      <c r="L39" s="40"/>
+      <c r="L39" s="38"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
@@ -2431,7 +2430,7 @@
       <c r="K40" s="15">
         <v>0</v>
       </c>
-      <c r="L40" s="38" t="s">
+      <c r="L40" s="36" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2463,7 +2462,7 @@
       <c r="K41" s="15">
         <v>0.8</v>
       </c>
-      <c r="L41" s="40"/>
+      <c r="L41" s="38"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
@@ -2493,7 +2492,7 @@
       <c r="K42" s="15">
         <v>1</v>
       </c>
-      <c r="L42" s="38"/>
+      <c r="L42" s="36"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
@@ -2523,7 +2522,7 @@
       <c r="K43" s="15">
         <v>1</v>
       </c>
-      <c r="L43" s="40"/>
+      <c r="L43" s="38"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
@@ -2553,7 +2552,7 @@
       <c r="K44" s="15">
         <v>0</v>
       </c>
-      <c r="L44" s="38" t="s">
+      <c r="L44" s="36" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2585,7 +2584,7 @@
       <c r="K45" s="15">
         <v>0.8</v>
       </c>
-      <c r="L45" s="40"/>
+      <c r="L45" s="38"/>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" s="3" t="s">
@@ -2615,7 +2614,7 @@
       <c r="K46" s="15">
         <v>0.6</v>
       </c>
-      <c r="L46" s="38"/>
+      <c r="L46" s="36"/>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" s="4" t="s">
@@ -2645,7 +2644,7 @@
       <c r="K47" s="15">
         <v>1</v>
       </c>
-      <c r="L47" s="40"/>
+      <c r="L47" s="38"/>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" s="3" t="s">
@@ -2675,7 +2674,7 @@
       <c r="K48" s="15">
         <v>0.5</v>
       </c>
-      <c r="L48" s="38"/>
+      <c r="L48" s="36"/>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
@@ -2705,7 +2704,7 @@
       <c r="K49" s="15">
         <v>0</v>
       </c>
-      <c r="L49" s="40"/>
+      <c r="L49" s="38"/>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
@@ -2735,7 +2734,7 @@
       <c r="K50" s="15">
         <v>0</v>
       </c>
-      <c r="L50" s="38"/>
+      <c r="L50" s="36"/>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
@@ -2765,7 +2764,7 @@
       <c r="K51" s="15">
         <v>0</v>
       </c>
-      <c r="L51" s="40"/>
+      <c r="L51" s="38"/>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52" s="3" t="s">
@@ -2795,7 +2794,7 @@
       <c r="K52" s="15">
         <v>0</v>
       </c>
-      <c r="L52" s="38"/>
+      <c r="L52" s="36"/>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
@@ -2825,7 +2824,7 @@
       <c r="K53" s="15">
         <v>0</v>
       </c>
-      <c r="L53" s="40"/>
+      <c r="L53" s="38"/>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" s="3" t="s">
@@ -2855,7 +2854,7 @@
       <c r="K54" s="15">
         <v>0</v>
       </c>
-      <c r="L54" s="38"/>
+      <c r="L54" s="36"/>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" s="4" t="s">
@@ -2885,7 +2884,7 @@
       <c r="K55" s="15">
         <v>0</v>
       </c>
-      <c r="L55" s="40"/>
+      <c r="L55" s="38"/>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
@@ -2915,7 +2914,7 @@
       <c r="K56" s="15">
         <v>0</v>
       </c>
-      <c r="L56" s="38"/>
+      <c r="L56" s="36"/>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
@@ -2945,7 +2944,7 @@
       <c r="K57" s="15">
         <v>0</v>
       </c>
-      <c r="L57" s="40"/>
+      <c r="L57" s="38"/>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
@@ -2975,7 +2974,7 @@
       <c r="K58" s="15">
         <v>0</v>
       </c>
-      <c r="L58" s="38"/>
+      <c r="L58" s="36"/>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
@@ -3005,7 +3004,7 @@
       <c r="K59" s="15">
         <v>0</v>
       </c>
-      <c r="L59" s="40"/>
+      <c r="L59" s="38"/>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" s="30" t="s">
@@ -3035,7 +3034,7 @@
       <c r="K60" s="34">
         <v>0</v>
       </c>
-      <c r="L60" s="41"/>
+      <c r="L60" s="39"/>
     </row>
     <row r="62" spans="3:12" ht="60" x14ac:dyDescent="0.25">
       <c r="C62" s="35" t="s">
@@ -3109,16 +3108,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042CCF6A-A22D-4A46-9BF3-E0136192D1DD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBB784A-5FCA-4015-ACAF-01D660ABEA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E2AFB2-0183-4FC2-85B7-713792DDB8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="83">
   <si>
     <t>Designer</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Footer</t>
   </si>
   <si>
-    <t>Código</t>
-  </si>
-  <si>
     <t>HTML e CSS base - Home</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>Wireframe - Área administrativa CRUD animais</t>
   </si>
   <si>
-    <t>HTML e CSS base - Doações e Animais</t>
-  </si>
-  <si>
     <t>Informação dos animais</t>
   </si>
   <si>
@@ -228,9 +222,6 @@
     <t>CSS - Home</t>
   </si>
   <si>
-    <t>Folha de rosto e Dados de instalação</t>
-  </si>
-  <si>
     <t>CSS - Animais</t>
   </si>
   <si>
@@ -286,13 +277,25 @@
   </si>
   <si>
     <t>Adiado</t>
+  </si>
+  <si>
+    <t>Criação do banco e tabelas de animais, doações, adm e mensagens</t>
+  </si>
+  <si>
+    <t>Atualizações nas tabelas</t>
+  </si>
+  <si>
+    <t>HTML e CSS base - Criação pg de Doações e Animais</t>
+  </si>
+  <si>
+    <t>Folha de rosto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +312,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -573,7 +583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,12 +688,836 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="100">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6699FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -766,6 +1600,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6699FF"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1220,7 +2062,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G4:G7">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1230,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F5228-FEA6-410A-9456-2C6350ABE72B}">
   <dimension ref="C2:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +2110,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I2" s="41"/>
       <c r="J2" s="1" t="s">
@@ -1281,8 +2123,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="42" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="28" t="s">
@@ -1311,8 +2153,8 @@
       </c>
       <c r="L3" s="37"/>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="43" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="29" t="s">
@@ -1342,11 +2184,11 @@
       <c r="L4" s="36"/>
     </row>
     <row r="5" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="44" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="13">
         <v>45385</v>
@@ -1371,8 +2213,8 @@
       </c>
       <c r="L5" s="38"/>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -1401,8 +2243,8 @@
       </c>
       <c r="L6" s="36"/>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="44" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="27" t="s">
@@ -1431,8 +2273,8 @@
       </c>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="29" t="s">
@@ -1461,12 +2303,12 @@
       </c>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="44" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E9" s="13">
         <v>45387</v>
@@ -1491,8 +2333,8 @@
       </c>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="29" t="s">
@@ -1521,8 +2363,8 @@
       </c>
       <c r="L10" s="36"/>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="44" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -1551,8 +2393,8 @@
       </c>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
+    <row r="12" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -1581,8 +2423,8 @@
       </c>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="44" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="27" t="s">
@@ -1611,8 +2453,8 @@
       </c>
       <c r="L13" s="38"/>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
+    <row r="14" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="29" t="s">
@@ -1641,12 +2483,12 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
+    <row r="15" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="44" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="13">
         <v>45396</v>
@@ -1671,12 +2513,12 @@
       </c>
       <c r="L15" s="38"/>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
+    <row r="16" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="E16" s="12">
         <v>45397</v>
@@ -1701,12 +2543,12 @@
       </c>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+    <row r="17" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="44" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="13">
         <v>45398</v>
@@ -1731,12 +2573,12 @@
       </c>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
+    <row r="18" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" s="12">
         <v>45400</v>
@@ -1761,12 +2603,12 @@
       </c>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
+    <row r="19" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="44" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="13">
         <v>45401</v>
@@ -1791,8 +2633,8 @@
       </c>
       <c r="L19" s="38"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
+    <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="29" t="s">
@@ -1821,12 +2663,12 @@
       </c>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="4" t="s">
+    <row r="21" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="44" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="13">
         <v>45403</v>
@@ -1851,12 +2693,12 @@
       </c>
       <c r="L21" s="38"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
+    <row r="22" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E22" s="12">
         <v>45404</v>
@@ -1882,12 +2724,12 @@
       <c r="L22" s="36"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="4" t="s">
+    <row r="23" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="44" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E23" s="13">
         <v>45405</v>
@@ -1913,12 +2755,12 @@
       <c r="L23" s="38"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
+    <row r="24" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="43" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="12">
         <v>45404</v>
@@ -1944,8 +2786,8 @@
       <c r="L24" s="36"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C25" s="4" t="s">
+    <row r="25" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="44" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="27" t="s">
@@ -1975,12 +2817,12 @@
       <c r="L25" s="38"/>
       <c r="P25" s="10"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
+    <row r="26" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26" s="12">
         <v>45408</v>
@@ -2006,12 +2848,12 @@
       <c r="L26" s="36"/>
       <c r="P26" s="10"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="4" t="s">
+    <row r="27" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="44" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E27" s="13">
         <v>45409</v>
@@ -2038,11 +2880,11 @@
       <c r="P27" s="10"/>
     </row>
     <row r="28" spans="3:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="12">
         <v>45410</v>
@@ -2068,8 +2910,8 @@
       <c r="L28" s="36"/>
       <c r="P28" s="10"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C29" s="4" t="s">
+    <row r="29" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="44" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="27" t="s">
@@ -2098,12 +2940,12 @@
       </c>
       <c r="L29" s="38"/>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
+    <row r="30" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" s="12">
         <v>45411</v>
@@ -2127,15 +2969,15 @@
         <v>0</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="44" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" s="13">
         <v>45412</v>
@@ -2160,12 +3002,12 @@
       </c>
       <c r="L31" s="38"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
+    <row r="32" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32" s="12">
         <v>45414</v>
@@ -2190,12 +3032,12 @@
       </c>
       <c r="L32" s="36"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
+    <row r="33" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="44" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E33" s="13">
         <v>45415</v>
@@ -2220,12 +3062,12 @@
       </c>
       <c r="L33" s="38"/>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
+    <row r="34" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="43" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E34" s="12">
         <v>45416</v>
@@ -2250,8 +3092,8 @@
       </c>
       <c r="L34" s="36"/>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C35" s="4" t="s">
+    <row r="35" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="44" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="27" t="s">
@@ -2280,12 +3122,12 @@
       </c>
       <c r="L35" s="38"/>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="s">
+    <row r="36" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E36" s="12">
         <v>45418</v>
@@ -2309,15 +3151,15 @@
         <v>0</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="44" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E37" s="13">
         <v>45419</v>
@@ -2342,12 +3184,12 @@
       </c>
       <c r="L37" s="38"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
+    <row r="38" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E38" s="12">
         <v>45422</v>
@@ -2372,8 +3214,8 @@
       </c>
       <c r="L38" s="36"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C39" s="4" t="s">
+    <row r="39" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="44" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="27" t="s">
@@ -2402,12 +3244,12 @@
       </c>
       <c r="L39" s="38"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
+    <row r="40" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E40" s="12">
         <v>45425</v>
@@ -2431,15 +3273,15 @@
         <v>0</v>
       </c>
       <c r="L40" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C41" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="44" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E41" s="13">
         <v>45427</v>
@@ -2457,19 +3299,19 @@
         <v>27</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K41" s="15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L41" s="38"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
+    <row r="42" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E42" s="12">
         <v>45430</v>
@@ -2494,8 +3336,8 @@
       </c>
       <c r="L42" s="36"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C43" s="4" t="s">
+    <row r="43" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="44" t="s">
         <v>31</v>
       </c>
       <c r="D43" s="27" t="s">
@@ -2524,12 +3366,12 @@
       </c>
       <c r="L43" s="38"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C44" s="3" t="s">
+    <row r="44" spans="3:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E44" s="12">
         <v>45436</v>
@@ -2553,15 +3395,15 @@
         <v>0</v>
       </c>
       <c r="L44" s="36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C45" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="44" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E45" s="13">
         <v>45439</v>
@@ -2579,19 +3421,19 @@
         <v>27</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K45" s="15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L45" s="38"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C46" s="3" t="s">
+    <row r="46" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C46" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E46" s="12">
         <v>45442</v>
@@ -2612,12 +3454,12 @@
         <v>19</v>
       </c>
       <c r="K46" s="15">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L46" s="36"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C47" s="4" t="s">
+    <row r="47" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="44" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="27" t="s">
@@ -2646,12 +3488,12 @@
       </c>
       <c r="L47" s="38"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C48" s="3" t="s">
+    <row r="48" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E48" s="12">
         <v>45439</v>
@@ -2669,19 +3511,19 @@
         <v>6</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K48" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L48" s="36"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C49" s="4" t="s">
+    <row r="49" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C49" s="44" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E49" s="13">
         <v>45446</v>
@@ -2706,12 +3548,12 @@
       </c>
       <c r="L49" s="38"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C50" s="3" t="s">
+    <row r="50" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C50" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E50" s="12">
         <v>45451</v>
@@ -2736,12 +3578,12 @@
       </c>
       <c r="L50" s="36"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C51" s="4" t="s">
+    <row r="51" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C51" s="44" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E51" s="13">
         <v>45454</v>
@@ -2766,12 +3608,12 @@
       </c>
       <c r="L51" s="38"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C52" s="3" t="s">
+    <row r="52" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C52" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E52" s="12">
         <v>45458</v>
@@ -2796,12 +3638,12 @@
       </c>
       <c r="L52" s="36"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C53" s="4" t="s">
+    <row r="53" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C53" s="44" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E53" s="13">
         <v>45467</v>
@@ -2826,12 +3668,12 @@
       </c>
       <c r="L53" s="38"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C54" s="3" t="s">
+    <row r="54" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C54" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E54" s="12">
         <v>45471</v>
@@ -2856,12 +3698,12 @@
       </c>
       <c r="L54" s="36"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C55" s="4" t="s">
+    <row r="55" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C55" s="44" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E55" s="13">
         <v>45443</v>
@@ -2886,12 +3728,12 @@
       </c>
       <c r="L55" s="38"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C56" s="3" t="s">
+    <row r="56" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C56" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E56" s="12">
         <v>45450</v>
@@ -2916,12 +3758,12 @@
       </c>
       <c r="L56" s="36"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C57" s="4" t="s">
+    <row r="57" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C57" s="44" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E57" s="13">
         <v>45453</v>
@@ -2946,12 +3788,12 @@
       </c>
       <c r="L57" s="38"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C58" s="3" t="s">
+    <row r="58" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C58" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E58" s="12">
         <v>45457</v>
@@ -2976,12 +3818,12 @@
       </c>
       <c r="L58" s="36"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C59" s="4" t="s">
+    <row r="59" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C59" s="44" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E59" s="13">
         <v>45460</v>
@@ -3006,12 +3848,12 @@
       </c>
       <c r="L59" s="38"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C60" s="30" t="s">
+    <row r="60" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C60" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E60" s="32">
         <v>45575</v>
@@ -3038,17 +3880,17 @@
     </row>
     <row r="62" spans="3:12" ht="60" x14ac:dyDescent="0.25">
       <c r="C62" s="35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C63" s="35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64" s="35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3057,28 +3899,54 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A12:A15">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J60">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="A fazer">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="A fazer">
       <formula>NOT(ISERROR(SEARCH("A fazer",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="Em progresso">
+    <cfRule type="containsText" dxfId="25" priority="15" operator="containsText" text="Em progresso">
       <formula>NOT(ISERROR(SEARCH("Em progresso",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K60">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C60">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Front-End">
+      <formula>NOT(ISERROR(SEARCH("Front-End",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Back-End">
+      <formula>NOT(ISERROR(SEARCH("Back-End",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Design">
+      <formula>NOT(ISERROR(SEARCH("Design",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Planejamento">
+      <formula>NOT(ISERROR(SEARCH("Planejamento",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Conteúdo">
+      <formula>NOT(ISERROR(SEARCH("Conteúdo",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Documentação">
+      <formula>NOT(ISERROR(SEARCH("Documentação",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Banco de dados">
+      <formula>NOT(ISERROR(SEARCH("Banco de dados",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Teste/análise">
+      <formula>NOT(ISERROR(SEARCH("Teste/análise",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E2AFB2-0183-4FC2-85B7-713792DDB8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC6EB7C-CE89-4EE1-916B-DD89B8B1836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="85">
   <si>
     <t>Designer</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>Folha de rosto</t>
+  </si>
+  <si>
+    <t>Capa</t>
+  </si>
+  <si>
+    <t>Dados de instalação</t>
   </si>
 </sst>
 </file>
@@ -682,22 +688,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -705,112 +711,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6699FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6699FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -872,82 +773,37 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFCCFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFCC99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -961,620 +817,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCC99"/>
+          <bgColor rgb="FF6699FF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2062,7 +1312,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G4:G7">
-    <cfRule type="duplicateValues" dxfId="99" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2070,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F5228-FEA6-410A-9456-2C6350ABE72B}">
-  <dimension ref="C2:P64"/>
+  <dimension ref="C2:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,10 +1359,10 @@
       <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="41"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2124,7 +1374,7 @@
       </c>
     </row>
     <row r="3" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="28" t="s">
@@ -2154,7 +1404,7 @@
       <c r="L3" s="37"/>
     </row>
     <row r="4" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="41" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="29" t="s">
@@ -2184,7 +1434,7 @@
       <c r="L4" s="36"/>
     </row>
     <row r="5" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -2214,7 +1464,7 @@
       <c r="L5" s="38"/>
     </row>
     <row r="6" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="41" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -2244,7 +1494,7 @@
       <c r="L6" s="36"/>
     </row>
     <row r="7" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="27" t="s">
@@ -2274,7 +1524,7 @@
       <c r="L7" s="38"/>
     </row>
     <row r="8" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="41" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="29" t="s">
@@ -2304,7 +1554,7 @@
       <c r="L8" s="36"/>
     </row>
     <row r="9" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="27" t="s">
@@ -2334,7 +1584,7 @@
       <c r="L9" s="38"/>
     </row>
     <row r="10" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="41" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="29" t="s">
@@ -2364,7 +1614,7 @@
       <c r="L10" s="36"/>
     </row>
     <row r="11" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -2394,7 +1644,7 @@
       <c r="L11" s="38"/>
     </row>
     <row r="12" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="41" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -2424,7 +1674,7 @@
       <c r="L12" s="36"/>
     </row>
     <row r="13" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="27" t="s">
@@ -2454,7 +1704,7 @@
       <c r="L13" s="38"/>
     </row>
     <row r="14" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="41" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="29" t="s">
@@ -2484,7 +1734,7 @@
       <c r="L14" s="36"/>
     </row>
     <row r="15" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -2514,7 +1764,7 @@
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="41" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="29" t="s">
@@ -2544,7 +1794,7 @@
       <c r="L16" s="36"/>
     </row>
     <row r="17" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="27" t="s">
@@ -2574,7 +1824,7 @@
       <c r="L17" s="38"/>
     </row>
     <row r="18" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="41" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="29" t="s">
@@ -2604,7 +1854,7 @@
       <c r="L18" s="36"/>
     </row>
     <row r="19" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="27" t="s">
@@ -2634,7 +1884,7 @@
       <c r="L19" s="38"/>
     </row>
     <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="41" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="29" t="s">
@@ -2664,7 +1914,7 @@
       <c r="L20" s="36"/>
     </row>
     <row r="21" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="27" t="s">
@@ -2694,7 +1944,7 @@
       <c r="L21" s="38"/>
     </row>
     <row r="22" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="41" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="29" t="s">
@@ -2725,7 +1975,7 @@
       <c r="P22" s="10"/>
     </row>
     <row r="23" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="27" t="s">
@@ -2756,7 +2006,7 @@
       <c r="P23" s="10"/>
     </row>
     <row r="24" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="41" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="29" t="s">
@@ -2787,7 +2037,7 @@
       <c r="P24" s="10"/>
     </row>
     <row r="25" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="42" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="27" t="s">
@@ -2818,7 +2068,7 @@
       <c r="P25" s="10"/>
     </row>
     <row r="26" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="29" t="s">
@@ -2849,7 +2099,7 @@
       <c r="P26" s="10"/>
     </row>
     <row r="27" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="27" t="s">
@@ -2880,7 +2130,7 @@
       <c r="P27" s="10"/>
     </row>
     <row r="28" spans="3:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="29" t="s">
@@ -2911,7 +2161,7 @@
       <c r="P28" s="10"/>
     </row>
     <row r="29" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="42" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="27" t="s">
@@ -2941,7 +2191,7 @@
       <c r="L29" s="38"/>
     </row>
     <row r="30" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="29" t="s">
@@ -2973,7 +2223,7 @@
       </c>
     </row>
     <row r="31" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="42" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="27" t="s">
@@ -3003,7 +2253,7 @@
       <c r="L31" s="38"/>
     </row>
     <row r="32" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="29" t="s">
@@ -3033,7 +2283,7 @@
       <c r="L32" s="36"/>
     </row>
     <row r="33" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="27" t="s">
@@ -3063,7 +2313,7 @@
       <c r="L33" s="38"/>
     </row>
     <row r="34" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="41" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="29" t="s">
@@ -3093,7 +2343,7 @@
       <c r="L34" s="36"/>
     </row>
     <row r="35" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="42" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="27" t="s">
@@ -3123,7 +2373,7 @@
       <c r="L35" s="38"/>
     </row>
     <row r="36" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="29" t="s">
@@ -3155,7 +2405,7 @@
       </c>
     </row>
     <row r="37" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="42" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="27" t="s">
@@ -3185,7 +2435,7 @@
       <c r="L37" s="38"/>
     </row>
     <row r="38" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="41" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="29" t="s">
@@ -3215,7 +2465,7 @@
       <c r="L38" s="36"/>
     </row>
     <row r="39" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="42" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="27" t="s">
@@ -3245,7 +2495,7 @@
       <c r="L39" s="38"/>
     </row>
     <row r="40" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="29" t="s">
@@ -3277,7 +2527,7 @@
       </c>
     </row>
     <row r="41" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="42" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="27" t="s">
@@ -3307,7 +2557,7 @@
       <c r="L41" s="38"/>
     </row>
     <row r="42" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="29" t="s">
@@ -3337,7 +2587,7 @@
       <c r="L42" s="36"/>
     </row>
     <row r="43" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="42" t="s">
         <v>31</v>
       </c>
       <c r="D43" s="27" t="s">
@@ -3367,7 +2617,7 @@
       <c r="L43" s="38"/>
     </row>
     <row r="44" spans="3:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="29" t="s">
@@ -3399,7 +2649,7 @@
       </c>
     </row>
     <row r="45" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="42" t="s">
         <v>28</v>
       </c>
       <c r="D45" s="27" t="s">
@@ -3429,7 +2679,7 @@
       <c r="L45" s="38"/>
     </row>
     <row r="46" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="29" t="s">
@@ -3459,7 +2709,7 @@
       <c r="L46" s="36"/>
     </row>
     <row r="47" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="42" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="27" t="s">
@@ -3489,20 +2739,20 @@
       <c r="L47" s="38"/>
     </row>
     <row r="48" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E48" s="12">
         <v>45439</v>
       </c>
       <c r="F48" s="12">
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="G48" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>26</v>
@@ -3519,47 +2769,47 @@
       <c r="L48" s="36"/>
     </row>
     <row r="49" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="44" t="s">
-        <v>1</v>
+      <c r="C49" s="41" t="s">
+        <v>5</v>
       </c>
       <c r="D49" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="13">
+        <v>45439</v>
+      </c>
+      <c r="F49" s="13">
+        <v>45440</v>
+      </c>
+      <c r="G49" s="4">
+        <v>3</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="15">
+        <v>1</v>
+      </c>
+      <c r="L49" s="38"/>
+    </row>
+    <row r="50" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C50" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="12">
         <v>45446</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="12">
         <v>45448</v>
-      </c>
-      <c r="G49" s="4">
-        <v>4</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="38"/>
-    </row>
-    <row r="50" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C50" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="12">
-        <v>45451</v>
-      </c>
-      <c r="F50" s="12">
-        <v>45452</v>
       </c>
       <c r="G50" s="3">
         <v>4</v>
@@ -3579,20 +2829,20 @@
       <c r="L50" s="36"/>
     </row>
     <row r="51" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E51" s="13">
-        <v>45454</v>
+        <v>45451</v>
       </c>
       <c r="F51" s="13">
-        <v>45455</v>
+        <v>45452</v>
       </c>
       <c r="G51" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>26</v>
@@ -3609,20 +2859,20 @@
       <c r="L51" s="38"/>
     </row>
     <row r="52" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E52" s="12">
-        <v>45458</v>
+        <v>45454</v>
       </c>
       <c r="F52" s="12">
-        <v>45459</v>
+        <v>45455</v>
       </c>
       <c r="G52" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>26</v>
@@ -3639,20 +2889,20 @@
       <c r="L52" s="36"/>
     </row>
     <row r="53" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E53" s="13">
-        <v>45467</v>
+        <v>45458</v>
       </c>
       <c r="F53" s="13">
-        <v>45469</v>
+        <v>45459</v>
       </c>
       <c r="G53" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>26</v>
@@ -3669,20 +2919,20 @@
       <c r="L53" s="38"/>
     </row>
     <row r="54" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E54" s="12">
-        <v>45471</v>
+        <v>45467</v>
       </c>
       <c r="F54" s="12">
-        <v>45472</v>
+        <v>45469</v>
       </c>
       <c r="G54" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>26</v>
@@ -3699,17 +2949,17 @@
       <c r="L54" s="36"/>
     </row>
     <row r="55" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C55" s="44" t="s">
-        <v>5</v>
+      <c r="C55" s="41" t="s">
+        <v>1</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E55" s="13">
-        <v>45443</v>
+        <v>45471</v>
       </c>
       <c r="F55" s="13">
-        <v>45443</v>
+        <v>45472</v>
       </c>
       <c r="G55" s="4">
         <v>3</v>
@@ -3718,7 +2968,7 @@
         <v>26</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>21</v>
@@ -3729,17 +2979,17 @@
       <c r="L55" s="38"/>
     </row>
     <row r="56" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="41" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E56" s="12">
-        <v>45450</v>
+        <v>45524</v>
       </c>
       <c r="F56" s="12">
-        <v>45450</v>
+        <v>45529</v>
       </c>
       <c r="G56" s="3">
         <v>2</v>
@@ -3751,25 +3001,25 @@
         <v>6</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K56" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L56" s="36"/>
     </row>
     <row r="57" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E57" s="13">
-        <v>45453</v>
+        <v>45529</v>
       </c>
       <c r="F57" s="13">
-        <v>45453</v>
+        <v>45531</v>
       </c>
       <c r="G57" s="4">
         <v>3</v>
@@ -3789,17 +3039,17 @@
       <c r="L57" s="38"/>
     </row>
     <row r="58" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="41" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E58" s="12">
-        <v>45457</v>
+        <v>45532</v>
       </c>
       <c r="F58" s="12">
-        <v>45457</v>
+        <v>45534</v>
       </c>
       <c r="G58" s="3">
         <v>2</v>
@@ -3819,20 +3069,20 @@
       <c r="L58" s="36"/>
     </row>
     <row r="59" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C59" s="44" t="s">
+      <c r="C59" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E59" s="13">
-        <v>45460</v>
+        <v>45535</v>
       </c>
       <c r="F59" s="13">
-        <v>45460</v>
+        <v>45537</v>
       </c>
       <c r="G59" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>26</v>
@@ -3849,47 +3099,107 @@
       <c r="L59" s="38"/>
     </row>
     <row r="60" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="12">
+        <v>45535</v>
+      </c>
+      <c r="F60" s="12">
+        <v>45537</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" s="15">
+        <v>0</v>
+      </c>
+      <c r="L60" s="36"/>
+    </row>
+    <row r="61" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C61" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="13">
+        <v>45538</v>
+      </c>
+      <c r="F61" s="13">
+        <v>45541</v>
+      </c>
+      <c r="G61" s="4">
+        <v>4</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" s="15">
+        <v>0</v>
+      </c>
+      <c r="L61" s="38"/>
+    </row>
+    <row r="62" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C62" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="32">
+      <c r="E62" s="32">
         <v>45575</v>
       </c>
-      <c r="F60" s="32">
+      <c r="F62" s="32">
         <v>45585</v>
       </c>
-      <c r="G60" s="30">
+      <c r="G62" s="30">
         <v>4</v>
       </c>
-      <c r="H60" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="33" t="s">
+      <c r="H62" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J60" s="30" t="s">
+      <c r="J62" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="K60" s="34">
+      <c r="K62" s="34">
         <v>0</v>
       </c>
-      <c r="L60" s="39"/>
-    </row>
-    <row r="62" spans="3:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="C62" s="35" t="s">
+      <c r="L62" s="39"/>
+    </row>
+    <row r="64" spans="3:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="C64" s="35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="3:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C63" s="35" t="s">
+    <row r="65" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C65" s="35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C64" s="35" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="35" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3899,54 +3209,54 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A12:A15">
-    <cfRule type="duplicateValues" dxfId="28" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J60">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="Finalizado">
+  <conditionalFormatting sqref="C3:C62">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Teste/análise">
+      <formula>NOT(ISERROR(SEARCH("Teste/análise",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Banco de dados">
+      <formula>NOT(ISERROR(SEARCH("Banco de dados",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Documentação">
+      <formula>NOT(ISERROR(SEARCH("Documentação",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Conteúdo">
+      <formula>NOT(ISERROR(SEARCH("Conteúdo",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Planejamento">
+      <formula>NOT(ISERROR(SEARCH("Planejamento",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Design">
+      <formula>NOT(ISERROR(SEARCH("Design",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Back-End">
+      <formula>NOT(ISERROR(SEARCH("Back-End",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Front-End">
+      <formula>NOT(ISERROR(SEARCH("Front-End",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J62">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="A fazer">
+    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="A fazer">
       <formula>NOT(ISERROR(SEARCH("A fazer",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="15" operator="containsText" text="Em progresso">
+    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="Em progresso">
       <formula>NOT(ISERROR(SEARCH("Em progresso",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K60">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+  <conditionalFormatting sqref="K3:K62">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C60">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Front-End">
-      <formula>NOT(ISERROR(SEARCH("Front-End",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Back-End">
-      <formula>NOT(ISERROR(SEARCH("Back-End",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Design">
-      <formula>NOT(ISERROR(SEARCH("Design",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Planejamento">
-      <formula>NOT(ISERROR(SEARCH("Planejamento",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Conteúdo">
-      <formula>NOT(ISERROR(SEARCH("Conteúdo",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Documentação">
-      <formula>NOT(ISERROR(SEARCH("Documentação",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Banco de dados">
-      <formula>NOT(ISERROR(SEARCH("Banco de dados",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Teste/análise">
-      <formula>NOT(ISERROR(SEARCH("Teste/análise",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3958,19 +3268,19 @@
           <x14:formula1>
             <xm:f>Funções!$I$3:$I$5</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J60</xm:sqref>
+          <xm:sqref>J3:J62</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04CB2B25-108D-4B1F-B63B-D01920EA7676}">
           <x14:formula1>
             <xm:f>Funções!$E$3:$E$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C60</xm:sqref>
+          <xm:sqref>C3:C62</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A9CC79E5-1BEA-4D87-92EF-20E7BD59CFBC}">
           <x14:formula1>
             <xm:f>Funções!$G$3:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:I60</xm:sqref>
+          <xm:sqref>H3:I62</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\TCC\Arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TCC-main\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC6EB7C-CE89-4EE1-916B-DD89B8B1836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C623CD6-CB79-4D66-9F83-5813E79697C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Cronograma" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cronograma!$C$2:$P$62</definedName>
     <definedName name="Sol1Dias" localSheetId="1">OFFSET(Cronograma!XFB1048576,MATCH(Cronograma!$M$19,Cronograma!XFC1:XFC14,0),,COUNTIF(Cronograma!XFC1:XFC14,Cronograma!$M$19))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -24,23 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>Designer</t>
   </si>
@@ -295,6 +285,27 @@
   </si>
   <si>
     <t>Dados de instalação</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>acordado em ststus do dia 26-8 a alteração da data final de abril para 30-9</t>
+  </si>
+  <si>
+    <t>próxima segunda</t>
+  </si>
+  <si>
+    <t>Manual - Operação/Uso</t>
+  </si>
+  <si>
+    <t>Manual - Manutenção</t>
+  </si>
+  <si>
+    <t>CSS - Footer</t>
+  </si>
+  <si>
+    <t>CSS - Mensagens</t>
   </si>
 </sst>
 </file>
@@ -589,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,6 +715,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,9 +884,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -910,7 +924,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1016,7 +1030,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1158,7 +1172,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1172,16 +1186,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
@@ -1198,7 +1212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1235,7 +1249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
@@ -1253,7 +1267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
@@ -1268,7 +1282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
@@ -1295,17 +1309,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E9" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E10" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E11" s="25" t="s">
         <v>30</v>
       </c>
@@ -1320,30 +1334,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F5228-FEA6-410A-9456-2C6350ABE72B}">
-  <dimension ref="C2:P66"/>
+  <dimension ref="C2:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="C48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="49.42578125" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" customWidth="1"/>
+    <col min="5" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="11" width="12.7265625" customWidth="1"/>
+    <col min="12" max="12" width="29.7265625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" customWidth="1"/>
+    <col min="15" max="15" width="31.1796875" customWidth="1"/>
+    <col min="16" max="16" width="19.453125" customWidth="1"/>
+    <col min="17" max="17" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1372,8 +1386,11 @@
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M2" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C3" s="40" t="s">
         <v>9</v>
       </c>
@@ -1403,7 +1420,7 @@
       </c>
       <c r="L3" s="37"/>
     </row>
-    <row r="4" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C4" s="41" t="s">
         <v>10</v>
       </c>
@@ -1433,7 +1450,7 @@
       </c>
       <c r="L4" s="36"/>
     </row>
-    <row r="5" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="42" t="s">
         <v>11</v>
       </c>
@@ -1463,7 +1480,7 @@
       </c>
       <c r="L5" s="38"/>
     </row>
-    <row r="6" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C6" s="41" t="s">
         <v>3</v>
       </c>
@@ -1493,7 +1510,7 @@
       </c>
       <c r="L6" s="36"/>
     </row>
-    <row r="7" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C7" s="42" t="s">
         <v>30</v>
       </c>
@@ -1523,7 +1540,7 @@
       </c>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C8" s="41" t="s">
         <v>31</v>
       </c>
@@ -1553,7 +1570,7 @@
       </c>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C9" s="42" t="s">
         <v>11</v>
       </c>
@@ -1583,7 +1600,7 @@
       </c>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C10" s="41" t="s">
         <v>3</v>
       </c>
@@ -1613,7 +1630,7 @@
       </c>
       <c r="L10" s="36"/>
     </row>
-    <row r="11" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C11" s="42" t="s">
         <v>1</v>
       </c>
@@ -1643,7 +1660,7 @@
       </c>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C12" s="41" t="s">
         <v>5</v>
       </c>
@@ -1673,7 +1690,7 @@
       </c>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C13" s="42" t="s">
         <v>30</v>
       </c>
@@ -1703,7 +1720,7 @@
       </c>
       <c r="L13" s="38"/>
     </row>
-    <row r="14" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C14" s="41" t="s">
         <v>31</v>
       </c>
@@ -1733,7 +1750,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C15" s="42" t="s">
         <v>11</v>
       </c>
@@ -1763,7 +1780,7 @@
       </c>
       <c r="L15" s="38"/>
     </row>
-    <row r="16" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" ht="29" x14ac:dyDescent="0.35">
       <c r="C16" s="41" t="s">
         <v>3</v>
       </c>
@@ -1793,7 +1810,7 @@
       </c>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C17" s="42" t="s">
         <v>1</v>
       </c>
@@ -1823,7 +1840,7 @@
       </c>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C18" s="41" t="s">
         <v>5</v>
       </c>
@@ -1853,7 +1870,7 @@
       </c>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
@@ -1883,7 +1900,7 @@
       </c>
       <c r="L19" s="38"/>
     </row>
-    <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C20" s="41" t="s">
         <v>31</v>
       </c>
@@ -1913,7 +1930,7 @@
       </c>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C21" s="42" t="s">
         <v>11</v>
       </c>
@@ -1943,7 +1960,7 @@
       </c>
       <c r="L21" s="38"/>
     </row>
-    <row r="22" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C22" s="41" t="s">
         <v>3</v>
       </c>
@@ -1974,7 +1991,7 @@
       <c r="L22" s="36"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C23" s="42" t="s">
         <v>1</v>
       </c>
@@ -2005,7 +2022,7 @@
       <c r="L23" s="38"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C24" s="41" t="s">
         <v>30</v>
       </c>
@@ -2036,7 +2053,7 @@
       <c r="L24" s="36"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C25" s="42" t="s">
         <v>31</v>
       </c>
@@ -2067,7 +2084,7 @@
       <c r="L25" s="38"/>
       <c r="P25" s="10"/>
     </row>
-    <row r="26" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C26" s="41" t="s">
         <v>11</v>
       </c>
@@ -2098,7 +2115,7 @@
       <c r="L26" s="36"/>
       <c r="P26" s="10"/>
     </row>
-    <row r="27" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C27" s="42" t="s">
         <v>3</v>
       </c>
@@ -2129,7 +2146,7 @@
       <c r="L27" s="38"/>
       <c r="P27" s="10"/>
     </row>
-    <row r="28" spans="3:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:16" ht="29" x14ac:dyDescent="0.35">
       <c r="C28" s="41" t="s">
         <v>1</v>
       </c>
@@ -2160,7 +2177,7 @@
       <c r="L28" s="36"/>
       <c r="P28" s="10"/>
     </row>
-    <row r="29" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C29" s="42" t="s">
         <v>31</v>
       </c>
@@ -2190,7 +2207,7 @@
       </c>
       <c r="L29" s="38"/>
     </row>
-    <row r="30" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C30" s="41" t="s">
         <v>11</v>
       </c>
@@ -2201,7 +2218,7 @@
         <v>45411</v>
       </c>
       <c r="F30" s="12">
-        <v>45411</v>
+        <v>45565</v>
       </c>
       <c r="G30" s="3">
         <v>3</v>
@@ -2221,8 +2238,11 @@
       <c r="L30" s="36" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="M30" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C31" s="42" t="s">
         <v>28</v>
       </c>
@@ -2252,7 +2272,7 @@
       </c>
       <c r="L31" s="38"/>
     </row>
-    <row r="32" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C32" s="41" t="s">
         <v>1</v>
       </c>
@@ -2282,7 +2302,7 @@
       </c>
       <c r="L32" s="36"/>
     </row>
-    <row r="33" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C33" s="42" t="s">
         <v>3</v>
       </c>
@@ -2312,7 +2332,7 @@
       </c>
       <c r="L33" s="38"/>
     </row>
-    <row r="34" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C34" s="41" t="s">
         <v>30</v>
       </c>
@@ -2342,7 +2362,7 @@
       </c>
       <c r="L34" s="36"/>
     </row>
-    <row r="35" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C35" s="42" t="s">
         <v>31</v>
       </c>
@@ -2372,7 +2392,7 @@
       </c>
       <c r="L35" s="38"/>
     </row>
-    <row r="36" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C36" s="41" t="s">
         <v>11</v>
       </c>
@@ -2404,9 +2424,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C37" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>52</v>
@@ -2427,14 +2447,14 @@
         <v>27</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K37" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="38"/>
     </row>
-    <row r="38" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C38" s="41" t="s">
         <v>3</v>
       </c>
@@ -2464,7 +2484,7 @@
       </c>
       <c r="L38" s="36"/>
     </row>
-    <row r="39" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C39" s="42" t="s">
         <v>31</v>
       </c>
@@ -2494,7 +2514,7 @@
       </c>
       <c r="L39" s="38"/>
     </row>
-    <row r="40" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C40" s="41" t="s">
         <v>11</v>
       </c>
@@ -2526,7 +2546,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C41" s="42" t="s">
         <v>28</v>
       </c>
@@ -2556,7 +2576,7 @@
       </c>
       <c r="L41" s="38"/>
     </row>
-    <row r="42" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C42" s="41" t="s">
         <v>1</v>
       </c>
@@ -2586,7 +2606,7 @@
       </c>
       <c r="L42" s="36"/>
     </row>
-    <row r="43" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C43" s="42" t="s">
         <v>31</v>
       </c>
@@ -2616,7 +2636,7 @@
       </c>
       <c r="L43" s="38"/>
     </row>
-    <row r="44" spans="3:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="41" t="s">
         <v>11</v>
       </c>
@@ -2648,7 +2668,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C45" s="42" t="s">
         <v>28</v>
       </c>
@@ -2678,7 +2698,7 @@
       </c>
       <c r="L45" s="38"/>
     </row>
-    <row r="46" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C46" s="41" t="s">
         <v>1</v>
       </c>
@@ -2708,7 +2728,7 @@
       </c>
       <c r="L46" s="36"/>
     </row>
-    <row r="47" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C47" s="42" t="s">
         <v>31</v>
       </c>
@@ -2738,7 +2758,7 @@
       </c>
       <c r="L47" s="38"/>
     </row>
-    <row r="48" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C48" s="42" t="s">
         <v>5</v>
       </c>
@@ -2768,7 +2788,7 @@
       </c>
       <c r="L48" s="36"/>
     </row>
-    <row r="49" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C49" s="41" t="s">
         <v>5</v>
       </c>
@@ -2798,7 +2818,7 @@
       </c>
       <c r="L49" s="38"/>
     </row>
-    <row r="50" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C50" s="42" t="s">
         <v>1</v>
       </c>
@@ -2828,7 +2848,7 @@
       </c>
       <c r="L50" s="36"/>
     </row>
-    <row r="51" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C51" s="41" t="s">
         <v>1</v>
       </c>
@@ -2858,7 +2878,7 @@
       </c>
       <c r="L51" s="38"/>
     </row>
-    <row r="52" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C52" s="42" t="s">
         <v>1</v>
       </c>
@@ -2888,7 +2908,7 @@
       </c>
       <c r="L52" s="36"/>
     </row>
-    <row r="53" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C53" s="41" t="s">
         <v>1</v>
       </c>
@@ -2918,7 +2938,7 @@
       </c>
       <c r="L53" s="38"/>
     </row>
-    <row r="54" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C54" s="42" t="s">
         <v>1</v>
       </c>
@@ -2948,7 +2968,7 @@
       </c>
       <c r="L54" s="36"/>
     </row>
-    <row r="55" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C55" s="41" t="s">
         <v>1</v>
       </c>
@@ -2971,14 +2991,14 @@
         <v>27</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K55" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="38"/>
     </row>
-    <row r="56" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C56" s="41" t="s">
         <v>5</v>
       </c>
@@ -3001,14 +3021,14 @@
         <v>6</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K56" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L56" s="36"/>
     </row>
-    <row r="57" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C57" s="42" t="s">
         <v>5</v>
       </c>
@@ -3038,7 +3058,7 @@
       </c>
       <c r="L57" s="38"/>
     </row>
-    <row r="58" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C58" s="41" t="s">
         <v>5</v>
       </c>
@@ -3068,7 +3088,7 @@
       </c>
       <c r="L58" s="36"/>
     </row>
-    <row r="59" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C59" s="42" t="s">
         <v>5</v>
       </c>
@@ -3098,7 +3118,7 @@
       </c>
       <c r="L59" s="38"/>
     </row>
-    <row r="60" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C60" s="41" t="s">
         <v>5</v>
       </c>
@@ -3128,7 +3148,7 @@
       </c>
       <c r="L60" s="36"/>
     </row>
-    <row r="61" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C61" s="42" t="s">
         <v>5</v>
       </c>
@@ -3158,7 +3178,7 @@
       </c>
       <c r="L61" s="38"/>
     </row>
-    <row r="62" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C62" s="43" t="s">
         <v>5</v>
       </c>
@@ -3188,22 +3208,49 @@
       </c>
       <c r="L62" s="39"/>
     </row>
-    <row r="64" spans="3:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C64" s="35" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="65" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C65" s="35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C66" s="35" t="s">
         <v>75</v>
       </c>
+      <c r="D66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="C2:P62" xr:uid="{10AA71E1-8C21-4C1B-8D0A-452C80674F87}">
+    <filterColumn colId="5" showButton="0"/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="H2:I2"/>
   </mergeCells>
@@ -3237,7 +3284,7 @@
       <formula>NOT(ISERROR(SEARCH("Front-End",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J62">
+  <conditionalFormatting sqref="J3:J62 M30">
     <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",J3)))</formula>
     </cfRule>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TCC-main\Arquivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\TCC\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C623CD6-CB79-4D66-9F83-5813E79697C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C37166-9E2C-465E-8906-12B56F431A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDFA246-CB9F-4529-AFA9-E3C590C6F618}"/>
   </bookViews>
@@ -25,12 +25,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="91">
   <si>
     <t>Designer</t>
   </si>
@@ -293,19 +304,16 @@
     <t>acordado em ststus do dia 26-8 a alteração da data final de abril para 30-9</t>
   </si>
   <si>
-    <t>próxima segunda</t>
-  </si>
-  <si>
     <t>Manual - Operação/Uso</t>
   </si>
   <si>
-    <t>Manual - Manutenção</t>
-  </si>
-  <si>
     <t>CSS - Footer</t>
   </si>
   <si>
     <t>CSS - Mensagens</t>
+  </si>
+  <si>
+    <t>próxima segunda - 01/09</t>
   </si>
 </sst>
 </file>
@@ -711,13 +719,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,9 +892,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -924,7 +932,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1030,7 +1038,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1172,7 +1180,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1186,16 +1194,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
@@ -1212,7 +1220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1249,7 +1257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
@@ -1267,7 +1275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
@@ -1282,7 +1290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
@@ -1297,7 +1305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
@@ -1309,17 +1317,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E9" s="24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E10" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E11" s="25" t="s">
         <v>30</v>
       </c>
@@ -1334,30 +1342,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351F5228-FEA6-410A-9456-2C6350ABE72B}">
-  <dimension ref="C2:P69"/>
+  <dimension ref="C2:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" customWidth="1"/>
-    <col min="5" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
-    <col min="8" max="11" width="12.7265625" customWidth="1"/>
-    <col min="12" max="12" width="29.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" customWidth="1"/>
-    <col min="15" max="15" width="31.1796875" customWidth="1"/>
-    <col min="16" max="16" width="19.453125" customWidth="1"/>
-    <col min="17" max="17" width="16.54296875" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1373,10 +1381,10 @@
       <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="45"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1386,11 +1394,11 @@
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="44" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C3" s="40" t="s">
         <v>9</v>
       </c>
@@ -1420,7 +1428,7 @@
       </c>
       <c r="L3" s="37"/>
     </row>
-    <row r="4" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C4" s="41" t="s">
         <v>10</v>
       </c>
@@ -1450,7 +1458,7 @@
       </c>
       <c r="L4" s="36"/>
     </row>
-    <row r="5" spans="3:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="42" t="s">
         <v>11</v>
       </c>
@@ -1480,7 +1488,7 @@
       </c>
       <c r="L5" s="38"/>
     </row>
-    <row r="6" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C6" s="41" t="s">
         <v>3</v>
       </c>
@@ -1510,7 +1518,7 @@
       </c>
       <c r="L6" s="36"/>
     </row>
-    <row r="7" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C7" s="42" t="s">
         <v>30</v>
       </c>
@@ -1540,7 +1548,7 @@
       </c>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C8" s="41" t="s">
         <v>31</v>
       </c>
@@ -1570,7 +1578,7 @@
       </c>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C9" s="42" t="s">
         <v>11</v>
       </c>
@@ -1600,7 +1608,7 @@
       </c>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C10" s="41" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +1638,7 @@
       </c>
       <c r="L10" s="36"/>
     </row>
-    <row r="11" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C11" s="42" t="s">
         <v>1</v>
       </c>
@@ -1660,7 +1668,7 @@
       </c>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C12" s="41" t="s">
         <v>5</v>
       </c>
@@ -1690,7 +1698,7 @@
       </c>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C13" s="42" t="s">
         <v>30</v>
       </c>
@@ -1720,7 +1728,7 @@
       </c>
       <c r="L13" s="38"/>
     </row>
-    <row r="14" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C14" s="41" t="s">
         <v>31</v>
       </c>
@@ -1750,7 +1758,7 @@
       </c>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="3:13" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C15" s="42" t="s">
         <v>11</v>
       </c>
@@ -1780,7 +1788,7 @@
       </c>
       <c r="L15" s="38"/>
     </row>
-    <row r="16" spans="3:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="41" t="s">
         <v>3</v>
       </c>
@@ -1810,7 +1818,7 @@
       </c>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="42" t="s">
         <v>1</v>
       </c>
@@ -1840,7 +1848,7 @@
       </c>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C18" s="41" t="s">
         <v>5</v>
       </c>
@@ -1870,7 +1878,7 @@
       </c>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
@@ -1900,7 +1908,7 @@
       </c>
       <c r="L19" s="38"/>
     </row>
-    <row r="20" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C20" s="41" t="s">
         <v>31</v>
       </c>
@@ -1930,7 +1938,7 @@
       </c>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C21" s="42" t="s">
         <v>11</v>
       </c>
@@ -1960,7 +1968,7 @@
       </c>
       <c r="L21" s="38"/>
     </row>
-    <row r="22" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C22" s="41" t="s">
         <v>3</v>
       </c>
@@ -1991,7 +1999,7 @@
       <c r="L22" s="36"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C23" s="42" t="s">
         <v>1</v>
       </c>
@@ -2022,7 +2030,7 @@
       <c r="L23" s="38"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C24" s="41" t="s">
         <v>30</v>
       </c>
@@ -2053,7 +2061,7 @@
       <c r="L24" s="36"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C25" s="42" t="s">
         <v>31</v>
       </c>
@@ -2084,7 +2092,7 @@
       <c r="L25" s="38"/>
       <c r="P25" s="10"/>
     </row>
-    <row r="26" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C26" s="41" t="s">
         <v>11</v>
       </c>
@@ -2115,7 +2123,7 @@
       <c r="L26" s="36"/>
       <c r="P26" s="10"/>
     </row>
-    <row r="27" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C27" s="42" t="s">
         <v>3</v>
       </c>
@@ -2146,7 +2154,7 @@
       <c r="L27" s="38"/>
       <c r="P27" s="10"/>
     </row>
-    <row r="28" spans="3:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="41" t="s">
         <v>1</v>
       </c>
@@ -2177,7 +2185,7 @@
       <c r="L28" s="36"/>
       <c r="P28" s="10"/>
     </row>
-    <row r="29" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C29" s="42" t="s">
         <v>31</v>
       </c>
@@ -2207,7 +2215,7 @@
       </c>
       <c r="L29" s="38"/>
     </row>
-    <row r="30" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C30" s="41" t="s">
         <v>11</v>
       </c>
@@ -2215,10 +2223,10 @@
         <v>49</v>
       </c>
       <c r="E30" s="12">
-        <v>45411</v>
+        <v>45565</v>
       </c>
       <c r="F30" s="12">
-        <v>45565</v>
+        <v>45567</v>
       </c>
       <c r="G30" s="3">
         <v>3</v>
@@ -2242,7 +2250,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C31" s="42" t="s">
         <v>28</v>
       </c>
@@ -2272,7 +2280,7 @@
       </c>
       <c r="L31" s="38"/>
     </row>
-    <row r="32" spans="3:16" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C32" s="41" t="s">
         <v>1</v>
       </c>
@@ -2302,7 +2310,7 @@
       </c>
       <c r="L32" s="36"/>
     </row>
-    <row r="33" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C33" s="42" t="s">
         <v>3</v>
       </c>
@@ -2332,7 +2340,7 @@
       </c>
       <c r="L33" s="38"/>
     </row>
-    <row r="34" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C34" s="41" t="s">
         <v>30</v>
       </c>
@@ -2340,10 +2348,10 @@
         <v>53</v>
       </c>
       <c r="E34" s="12">
-        <v>45416</v>
+        <v>45568</v>
       </c>
       <c r="F34" s="12">
-        <v>45416</v>
+        <v>45570</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -2362,7 +2370,7 @@
       </c>
       <c r="L34" s="36"/>
     </row>
-    <row r="35" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C35" s="42" t="s">
         <v>31</v>
       </c>
@@ -2392,7 +2400,7 @@
       </c>
       <c r="L35" s="38"/>
     </row>
-    <row r="36" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C36" s="41" t="s">
         <v>11</v>
       </c>
@@ -2400,10 +2408,10 @@
         <v>50</v>
       </c>
       <c r="E36" s="12">
-        <v>45418</v>
+        <v>45572</v>
       </c>
       <c r="F36" s="12">
-        <v>45418</v>
+        <v>45574</v>
       </c>
       <c r="G36" s="3">
         <v>2</v>
@@ -2424,7 +2432,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C37" s="42" t="s">
         <v>30</v>
       </c>
@@ -2454,7 +2462,7 @@
       </c>
       <c r="L37" s="38"/>
     </row>
-    <row r="38" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C38" s="41" t="s">
         <v>3</v>
       </c>
@@ -2484,7 +2492,7 @@
       </c>
       <c r="L38" s="36"/>
     </row>
-    <row r="39" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C39" s="42" t="s">
         <v>31</v>
       </c>
@@ -2514,7 +2522,7 @@
       </c>
       <c r="L39" s="38"/>
     </row>
-    <row r="40" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C40" s="41" t="s">
         <v>11</v>
       </c>
@@ -2522,10 +2530,10 @@
         <v>54</v>
       </c>
       <c r="E40" s="12">
-        <v>45425</v>
+        <v>45575</v>
       </c>
       <c r="F40" s="12">
-        <v>45425</v>
+        <v>45577</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -2546,7 +2554,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C41" s="42" t="s">
         <v>28</v>
       </c>
@@ -2576,7 +2584,7 @@
       </c>
       <c r="L41" s="38"/>
     </row>
-    <row r="42" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C42" s="41" t="s">
         <v>1</v>
       </c>
@@ -2606,7 +2614,7 @@
       </c>
       <c r="L42" s="36"/>
     </row>
-    <row r="43" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C43" s="42" t="s">
         <v>31</v>
       </c>
@@ -2636,7 +2644,7 @@
       </c>
       <c r="L43" s="38"/>
     </row>
-    <row r="44" spans="3:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="41" t="s">
         <v>11</v>
       </c>
@@ -2644,10 +2652,10 @@
         <v>57</v>
       </c>
       <c r="E44" s="12">
-        <v>45436</v>
+        <v>45579</v>
       </c>
       <c r="F44" s="12">
-        <v>45437</v>
+        <v>45581</v>
       </c>
       <c r="G44" s="3">
         <v>3</v>
@@ -2668,7 +2676,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C45" s="42" t="s">
         <v>28</v>
       </c>
@@ -2698,7 +2706,7 @@
       </c>
       <c r="L45" s="38"/>
     </row>
-    <row r="46" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C46" s="41" t="s">
         <v>1</v>
       </c>
@@ -2728,7 +2736,7 @@
       </c>
       <c r="L46" s="36"/>
     </row>
-    <row r="47" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C47" s="42" t="s">
         <v>31</v>
       </c>
@@ -2758,7 +2766,7 @@
       </c>
       <c r="L47" s="38"/>
     </row>
-    <row r="48" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C48" s="42" t="s">
         <v>5</v>
       </c>
@@ -2788,7 +2796,7 @@
       </c>
       <c r="L48" s="36"/>
     </row>
-    <row r="49" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C49" s="41" t="s">
         <v>5</v>
       </c>
@@ -2818,7 +2826,7 @@
       </c>
       <c r="L49" s="38"/>
     </row>
-    <row r="50" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C50" s="42" t="s">
         <v>1</v>
       </c>
@@ -2841,14 +2849,14 @@
         <v>27</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K50" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="36"/>
     </row>
-    <row r="51" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C51" s="41" t="s">
         <v>1</v>
       </c>
@@ -2878,7 +2886,7 @@
       </c>
       <c r="L51" s="38"/>
     </row>
-    <row r="52" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C52" s="42" t="s">
         <v>1</v>
       </c>
@@ -2901,14 +2909,14 @@
         <v>27</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K52" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="36"/>
     </row>
-    <row r="53" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C53" s="41" t="s">
         <v>1</v>
       </c>
@@ -2938,7 +2946,7 @@
       </c>
       <c r="L53" s="38"/>
     </row>
-    <row r="54" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C54" s="42" t="s">
         <v>1</v>
       </c>
@@ -2968,7 +2976,7 @@
       </c>
       <c r="L54" s="36"/>
     </row>
-    <row r="55" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C55" s="41" t="s">
         <v>1</v>
       </c>
@@ -2998,7 +3006,7 @@
       </c>
       <c r="L55" s="38"/>
     </row>
-    <row r="56" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C56" s="41" t="s">
         <v>5</v>
       </c>
@@ -3028,7 +3036,7 @@
       </c>
       <c r="L56" s="36"/>
     </row>
-    <row r="57" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C57" s="42" t="s">
         <v>5</v>
       </c>
@@ -3051,14 +3059,14 @@
         <v>6</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K57" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="38"/>
     </row>
-    <row r="58" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C58" s="41" t="s">
         <v>5</v>
       </c>
@@ -3081,14 +3089,14 @@
         <v>6</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K58" s="15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L58" s="36"/>
     </row>
-    <row r="59" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C59" s="42" t="s">
         <v>5</v>
       </c>
@@ -3118,7 +3126,7 @@
       </c>
       <c r="L59" s="38"/>
     </row>
-    <row r="60" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C60" s="41" t="s">
         <v>5</v>
       </c>
@@ -3148,7 +3156,7 @@
       </c>
       <c r="L60" s="36"/>
     </row>
-    <row r="61" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C61" s="42" t="s">
         <v>5</v>
       </c>
@@ -3178,7 +3186,7 @@
       </c>
       <c r="L61" s="38"/>
     </row>
-    <row r="62" spans="3:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
         <v>5</v>
       </c>
@@ -3208,43 +3216,38 @@
       </c>
       <c r="L62" s="39"/>
     </row>
-    <row r="64" spans="3:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:12" ht="60" x14ac:dyDescent="0.25">
       <c r="C64" s="35" t="s">
         <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" ht="29" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C65" s="35" t="s">
         <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="35" t="s">
         <v>75</v>
       </c>
       <c r="D66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D69" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos/cronograma_tcc.xlsx
+++ b/Arquivos/cronograma_tcc.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Cronograma" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Cronograma!$C$2:$P$62</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Sol1Dias" vbProcedure="false">OFFSET(Cronograma!XFB1048576,MATCH(Cronograma!$M$19,Cronograma!XFC1:XFC14,0),,COUNTIF(Cronograma!XFC1:XFC14,Cronograma!$M$19))</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="93">
   <si>
     <t xml:space="preserve">Função</t>
   </si>
@@ -123,9 +122,6 @@
     <t xml:space="preserve">Observação</t>
   </si>
   <si>
-    <t xml:space="preserve">obs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Geral (tarefas, funções e cronograma definidos)</t>
   </si>
   <si>
@@ -265,6 +261,18 @@
   </si>
   <si>
     <t xml:space="preserve">Lista de materiais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Página Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apresentação sobre o que é o projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSS – Ajustes finais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrigir erros e/ou pequenos detalhes que deixamos passar</t>
   </si>
   <si>
     <t xml:space="preserve">Suporte</t>
@@ -499,13 +507,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -521,6 +522,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="thin"/>
       <top/>
       <bottom/>
@@ -581,196 +589,204 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="12" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -783,7 +799,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="32">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -909,14 +925,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FF006100"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
@@ -926,21 +934,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9C0006"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9C5700"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1135,10 +1128,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema do Office 2013 - 2022">
   <a:themeElements>
@@ -1318,145 +1307,145 @@
   </sheetPr>
   <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R12" activeCellId="0" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="6" t="str">
         <f aca="false">G4&amp;G5</f>
         <v>Isabela Adryelly </v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="6" t="str">
         <f aca="false">G5&amp;G6</f>
         <v>Adryelly Gabriel </v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="6" t="str">
         <f aca="false">G5&amp;G6</f>
         <v>Adryelly Gabriel </v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="str">
+      <c r="C6" s="6" t="str">
         <f aca="false">G5&amp;G6</f>
         <v>Adryelly Gabriel </v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="6" t="str">
         <f aca="false">G4&amp;G7</f>
         <v>Isabela Pablo </v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="10" t="str">
         <f aca="false">G5&amp;G7</f>
         <v>Adryelly Pablo </v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1476,71 +1465,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:P68"/>
+  <dimension ref="C2:P70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I24" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M30" activeCellId="0" sqref="M30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L60" activeCellId="0" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="29.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="31.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="49.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="29.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="16.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="M2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="16" t="n">
         <v>45376</v>
@@ -1570,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="24" t="n">
         <v>45380</v>
@@ -1600,7 +1587,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="31" t="n">
         <v>45385</v>
@@ -1630,7 +1617,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="24" t="n">
         <v>45383</v>
@@ -1660,7 +1647,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="31" t="n">
         <v>45383</v>
@@ -1690,7 +1677,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="24" t="n">
         <v>45386</v>
@@ -1720,7 +1707,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="31" t="n">
         <v>45387</v>
@@ -1750,7 +1737,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="24" t="n">
         <v>45384</v>
@@ -1780,7 +1767,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="31" t="n">
         <v>45386</v>
@@ -1810,7 +1797,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="24" t="n">
         <v>45390</v>
@@ -1840,7 +1827,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="31" t="n">
         <v>45392</v>
@@ -1870,7 +1857,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="24" t="n">
         <v>45394</v>
@@ -1900,7 +1887,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="31" t="n">
         <v>45396</v>
@@ -1930,7 +1917,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="24" t="n">
         <v>45397</v>
@@ -1960,7 +1947,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="31" t="n">
         <v>45398</v>
@@ -1990,7 +1977,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="24" t="n">
         <v>45400</v>
@@ -2020,7 +2007,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="31" t="n">
         <v>45401</v>
@@ -2050,7 +2037,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="24" t="n">
         <v>45402</v>
@@ -2080,7 +2067,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="31" t="n">
         <v>45403</v>
@@ -2110,7 +2097,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="24" t="n">
         <v>45404</v>
@@ -2141,7 +2128,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="31" t="n">
         <v>45405</v>
@@ -2172,7 +2159,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="24" t="n">
         <v>45404</v>
@@ -2203,7 +2190,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="31" t="n">
         <v>45407</v>
@@ -2234,7 +2221,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="24" t="n">
         <v>45408</v>
@@ -2265,7 +2252,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="31" t="n">
         <v>45409</v>
@@ -2296,7 +2283,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="24" t="n">
         <v>45410</v>
@@ -2327,7 +2314,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="31" t="n">
         <v>45411</v>
@@ -2357,7 +2344,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="24" t="n">
         <v>45565</v>
@@ -2381,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M30" s="38"/>
     </row>
@@ -2390,7 +2377,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" s="31" t="n">
         <v>45412</v>
@@ -2420,7 +2407,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" s="24" t="n">
         <v>45414</v>
@@ -2450,7 +2437,7 @@
         <v>17</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="31" t="n">
         <v>45415</v>
@@ -2480,7 +2467,7 @@
         <v>24</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" s="24" t="n">
         <v>45568</v>
@@ -2510,7 +2497,7 @@
         <v>23</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="31" t="n">
         <v>45417</v>
@@ -2540,7 +2527,7 @@
         <v>14</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E36" s="24" t="n">
         <v>45572</v>
@@ -2564,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,7 +2559,7 @@
         <v>24</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37" s="31" t="n">
         <v>45419</v>
@@ -2602,7 +2589,7 @@
         <v>17</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" s="24" t="n">
         <v>45422</v>
@@ -2632,7 +2619,7 @@
         <v>23</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="31" t="n">
         <v>45423</v>
@@ -2662,7 +2649,7 @@
         <v>14</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" s="24" t="n">
         <v>45575</v>
@@ -2686,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,7 +2681,7 @@
         <v>20</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="31" t="n">
         <v>45427</v>
@@ -2724,7 +2711,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="24" t="n">
         <v>45430</v>
@@ -2754,7 +2741,7 @@
         <v>23</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="31" t="n">
         <v>45432</v>
@@ -2784,7 +2771,7 @@
         <v>14</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" s="24" t="n">
         <v>45579</v>
@@ -2808,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,7 +2803,7 @@
         <v>20</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E45" s="31" t="n">
         <v>45439</v>
@@ -2846,7 +2833,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46" s="24" t="n">
         <v>45442</v>
@@ -2864,10 +2851,10 @@
         <v>18</v>
       </c>
       <c r="J46" s="26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K46" s="36" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L46" s="28"/>
     </row>
@@ -2876,7 +2863,7 @@
         <v>23</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E47" s="31" t="n">
         <v>45439</v>
@@ -2906,7 +2893,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E48" s="24" t="n">
         <v>45439</v>
@@ -2936,7 +2923,7 @@
         <v>22</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E49" s="31" t="n">
         <v>45439</v>
@@ -2966,7 +2953,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E50" s="24" t="n">
         <v>45446</v>
@@ -2996,7 +2983,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E51" s="31" t="n">
         <v>45451</v>
@@ -3014,10 +3001,10 @@
         <v>18</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K51" s="36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="35"/>
     </row>
@@ -3026,7 +3013,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E52" s="24" t="n">
         <v>45454</v>
@@ -3056,7 +3043,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E53" s="31" t="n">
         <v>45458</v>
@@ -3074,10 +3061,10 @@
         <v>18</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K53" s="36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="35"/>
     </row>
@@ -3086,7 +3073,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E54" s="24" t="n">
         <v>45467</v>
@@ -3104,10 +3091,10 @@
         <v>18</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K54" s="36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="28"/>
     </row>
@@ -3116,7 +3103,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E55" s="31" t="n">
         <v>45471</v>
@@ -3146,7 +3133,7 @@
         <v>22</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E56" s="24" t="n">
         <v>45524</v>
@@ -3176,7 +3163,7 @@
         <v>22</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E57" s="31" t="n">
         <v>45529</v>
@@ -3206,7 +3193,7 @@
         <v>22</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E58" s="24" t="n">
         <v>45532</v>
@@ -3236,7 +3223,7 @@
         <v>22</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E59" s="31" t="n">
         <v>45535</v>
@@ -3261,57 +3248,59 @@
       </c>
       <c r="L59" s="35"/>
     </row>
-    <row r="60" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E60" s="24" t="n">
-        <v>45535</v>
+        <v>45520</v>
       </c>
       <c r="F60" s="24" t="n">
-        <v>45537</v>
+        <v>45565</v>
       </c>
       <c r="G60" s="25" t="n">
         <v>2</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I60" s="26" t="s">
         <v>21</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K60" s="36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L60" s="28"/>
-    </row>
-    <row r="61" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="L60" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="29" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D61" s="30" t="s">
         <v>81</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>45538</v>
+        <v>45551</v>
       </c>
       <c r="F61" s="31" t="n">
         <v>45565</v>
       </c>
       <c r="G61" s="32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H61" s="33" t="s">
         <v>15</v>
       </c>
       <c r="I61" s="33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J61" s="26" t="s">
         <v>8</v>
@@ -3319,151 +3308,210 @@
       <c r="K61" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="L61" s="35"/>
+      <c r="L61" s="40" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="41" t="n">
+      <c r="D62" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="24" t="n">
+        <v>45535</v>
+      </c>
+      <c r="F62" s="24" t="n">
+        <v>45537</v>
+      </c>
+      <c r="G62" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" s="28"/>
+    </row>
+    <row r="63" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="31" t="n">
+        <v>45538</v>
+      </c>
+      <c r="F63" s="31" t="n">
+        <v>45565</v>
+      </c>
+      <c r="G63" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="35"/>
+    </row>
+    <row r="64" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="43" t="n">
         <v>45575</v>
       </c>
-      <c r="F62" s="41" t="n">
+      <c r="F64" s="43" t="n">
         <v>45585</v>
       </c>
-      <c r="G62" s="42" t="n">
+      <c r="G64" s="44" t="n">
         <v>4</v>
       </c>
-      <c r="H62" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" s="43" t="s">
+      <c r="H64" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J62" s="44" t="s">
+      <c r="J64" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="45" t="n">
+      <c r="K64" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="L62" s="46"/>
-    </row>
-    <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="0" t="s">
+      <c r="L64" s="48"/>
+    </row>
+    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="49" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="47" t="s">
+      <c r="D66" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="0" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="49" t="s">
         <v>88</v>
       </c>
+      <c r="D67" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="0" t="s">
-        <v>89</v>
+      <c r="C68" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2:P62">
-    <filterColumn colId="0" hiddenButton="1"/>
-  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="H2:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C62">
-    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Teste/análise" dxfId="20">
+  <conditionalFormatting sqref="C3:C64">
+    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Teste/análise" dxfId="17">
       <formula>NOT(ISERROR(SEARCH("Teste/análise",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Banco de dados" dxfId="21">
+    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Banco de dados" dxfId="18">
       <formula>NOT(ISERROR(SEARCH("Banco de dados",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Documentação" dxfId="22">
+    <cfRule type="containsText" priority="4" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Documentação" dxfId="19">
       <formula>NOT(ISERROR(SEARCH("Documentação",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Conteúdo" dxfId="23">
+    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Conteúdo" dxfId="20">
       <formula>NOT(ISERROR(SEARCH("Conteúdo",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Planejamento" dxfId="24">
+    <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Planejamento" dxfId="21">
       <formula>NOT(ISERROR(SEARCH("Planejamento",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Design" dxfId="25">
+    <cfRule type="containsText" priority="7" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Design" dxfId="22">
       <formula>NOT(ISERROR(SEARCH("Design",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Back-End" dxfId="26">
+    <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Back-End" dxfId="23">
       <formula>NOT(ISERROR(SEARCH("Back-End",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Front-End" dxfId="27">
+    <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Front-End" dxfId="24">
       <formula>NOT(ISERROR(SEARCH("Front-End",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J62">
-    <cfRule type="containsText" priority="10" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Finalizado" dxfId="28">
+  <conditionalFormatting sqref="J3:J64">
+    <cfRule type="containsText" priority="10" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Finalizado" dxfId="25">
       <formula>NOT(ISERROR(SEARCH("Finalizado",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="11" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="A fazer" dxfId="29">
+    <cfRule type="containsText" priority="11" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="A fazer" dxfId="26">
       <formula>NOT(ISERROR(SEARCH("A fazer",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="12" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Em progresso" dxfId="30">
+    <cfRule type="containsText" priority="12" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Em progresso" dxfId="27">
       <formula>NOT(ISERROR(SEARCH("Em progresso",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K62">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+  <conditionalFormatting sqref="K3:K64">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="15" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+    <cfRule type="cellIs" priority="15" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A15">
-    <cfRule type="duplicateValues" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34"/>
+    <cfRule type="duplicateValues" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30">
-    <cfRule type="containsText" priority="17" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Finalizado" dxfId="28">
+    <cfRule type="containsText" priority="17" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Finalizado" dxfId="25">
       <formula>NOT(ISERROR(SEARCH("Finalizado",M30)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="18" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="A fazer" dxfId="29">
+    <cfRule type="containsText" priority="18" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="A fazer" dxfId="26">
       <formula>NOT(ISERROR(SEARCH("A fazer",M30)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="19" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Em progresso" dxfId="30">
+    <cfRule type="containsText" priority="19" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Em progresso" dxfId="27">
       <formula>NOT(ISERROR(SEARCH("Em progresso",M30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J3:J62" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J3:J64" type="list">
       <formula1>Funções!$I$3:$I$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C62" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C64" type="list">
       <formula1>Funções!$E$3:$E$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:I62" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H3:I64" type="list">
       <formula1>Funções!$G$3:$G$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3475,6 +3523,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>